--- a/proj_wikipedia/records_athletics/records_athletics_table.xlsx
+++ b/proj_wikipedia/records_athletics/records_athletics_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="498">
   <si>
     <t>Event</t>
   </si>
@@ -41,6 +41,12 @@
     <t>sex</t>
   </si>
   <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>100 m</t>
   </si>
   <si>
@@ -197,19 +203,10 @@
     <t>600 m</t>
   </si>
   <si>
-    <t>60 m hurdles</t>
-  </si>
-  <si>
     <t>2000 m steeplechase</t>
   </si>
   <si>
-    <t>5000 m walk</t>
-  </si>
-  <si>
     <t>Pentathlon</t>
-  </si>
-  <si>
-    <t>3000 m walk</t>
   </si>
   <si>
     <t>10.61 A (-0.4 m/s)</t>
@@ -433,9 +430,6 @@
   </si>
   <si>
     <t>1.80 m</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>6.23 m</t>
@@ -1033,6 +1027,9 @@
     <t>African Championships</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Olympic Games</t>
   </si>
   <si>
@@ -1481,6 +1478,39 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> km (road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> miles (road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m (track)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m hurdles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m steeplechase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> km walk (road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m relay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m walk (track)</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>others</t>
   </si>
 </sst>
 </file>
@@ -1559,2446 +1589,2956 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I2" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J2" t="s">
+        <v>487</v>
+      </c>
+      <c r="K2" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I3" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J3" t="s">
+        <v>487</v>
+      </c>
+      <c r="K3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I4" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J4" t="s">
+        <v>487</v>
+      </c>
+      <c r="K4" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I5" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J5" t="s">
+        <v>487</v>
+      </c>
+      <c r="K5" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G6" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I6" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J6" t="s">
+        <v>487</v>
+      </c>
+      <c r="K6" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I7" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K7" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I8" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J8" t="s">
+        <v>487</v>
+      </c>
+      <c r="K8" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I9" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J9" t="s">
+        <v>487</v>
+      </c>
+      <c r="K9" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I10" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G11" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I11" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J11" t="s">
+        <v>487</v>
+      </c>
+      <c r="K11" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G12" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I12" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J12" t="s">
+        <v>487</v>
+      </c>
+      <c r="K12" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G13" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I13" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J13" t="s">
+        <v>488</v>
+      </c>
+      <c r="K13" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G14" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I14" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J14" t="s">
+        <v>487</v>
+      </c>
+      <c r="K14" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I15" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J15" t="s">
+        <v>488</v>
+      </c>
+      <c r="K15" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G16" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I16" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J16" t="s">
+        <v>488</v>
+      </c>
+      <c r="K16" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G17" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I17" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J17" t="s">
+        <v>489</v>
+      </c>
+      <c r="K17" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I18" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J18" t="s">
+        <v>490</v>
+      </c>
+      <c r="K18" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G19" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I19" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J19" t="s">
+        <v>488</v>
+      </c>
+      <c r="K19" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I20" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I21" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I22" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J22" t="s">
+        <v>488</v>
+      </c>
+      <c r="K22" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I23" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J23" t="s">
+        <v>488</v>
+      </c>
+      <c r="K23" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H24" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I24" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J24" t="s">
+        <v>488</v>
+      </c>
+      <c r="K24" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I25" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J25" t="s">
+        <v>488</v>
+      </c>
+      <c r="K25" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H26" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I26" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J26" t="s">
+        <v>488</v>
+      </c>
+      <c r="K26" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I27" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I28" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J28" t="s">
+        <v>491</v>
+      </c>
+      <c r="K28" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G29" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I29" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J29" t="s">
+        <v>491</v>
+      </c>
+      <c r="K29" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E30" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I30" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J30" t="s">
+        <v>491</v>
+      </c>
+      <c r="K30" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I31" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J31" t="s">
+        <v>492</v>
+      </c>
+      <c r="K31" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E32" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G32" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H32" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I32" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J32" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E33" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I33" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D34" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G34" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I34" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G35" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H35" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I35" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J35" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G36" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I36" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J36" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G37" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I37" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J37" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E38" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H38" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I38" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J38" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D39" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G39" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I39" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J39" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G40" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H40" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I40" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G41" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H41" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I41" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D42" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G42" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H42" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I42" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J42" t="s">
+        <v>493</v>
+      </c>
+      <c r="K42" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D43" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E43" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F43" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G43" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H43" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I43" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J43" t="s">
+        <v>493</v>
+      </c>
+      <c r="K43" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D44" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E44" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G44" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I44" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J44" t="s">
+        <v>494</v>
+      </c>
+      <c r="K44" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D45" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E45" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G45" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H45" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I45" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J45" t="s">
+        <v>494</v>
+      </c>
+      <c r="K45" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D46" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E46" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G46" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H46" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I46" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J46" t="s">
+        <v>50</v>
+      </c>
+      <c r="K46" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D47" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F47" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H47" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I47" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J47" t="s">
+        <v>494</v>
+      </c>
+      <c r="K47" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D48" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G48" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H48" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I48" t="s">
+        <v>486</v>
+      </c>
+      <c r="J48" t="s">
         <v>487</v>
+      </c>
+      <c r="K48" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E49" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G49" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H49" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I49" t="s">
+        <v>486</v>
+      </c>
+      <c r="J49" t="s">
         <v>487</v>
+      </c>
+      <c r="K49" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D50" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F50" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G50" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I50" t="s">
+        <v>486</v>
+      </c>
+      <c r="J50" t="s">
         <v>487</v>
+      </c>
+      <c r="K50" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D51" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F51" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G51" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H51" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I51" t="s">
+        <v>486</v>
+      </c>
+      <c r="J51" t="s">
         <v>487</v>
+      </c>
+      <c r="K51" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F52" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G52" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H52" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I52" t="s">
+        <v>486</v>
+      </c>
+      <c r="J52" t="s">
         <v>487</v>
+      </c>
+      <c r="K52" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D53" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H53" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I53" t="s">
+        <v>486</v>
+      </c>
+      <c r="J53" t="s">
         <v>487</v>
+      </c>
+      <c r="K53" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D54" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F54" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H54" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I54" t="s">
+        <v>486</v>
+      </c>
+      <c r="J54" t="s">
         <v>487</v>
+      </c>
+      <c r="K54" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G55" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H55" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I55" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D56" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E56" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F56" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G56" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H56" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I56" t="s">
+        <v>486</v>
+      </c>
+      <c r="J56" t="s">
         <v>487</v>
+      </c>
+      <c r="K56" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D57" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E57" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F57" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G57" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I57" t="s">
+        <v>486</v>
+      </c>
+      <c r="J57" t="s">
         <v>487</v>
+      </c>
+      <c r="K57" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D58" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G58" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H58" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I58" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J58" t="s">
+        <v>53</v>
+      </c>
+      <c r="K58" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D59" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F59" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G59" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H59" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I59" t="s">
+        <v>486</v>
+      </c>
+      <c r="J59" t="s">
         <v>487</v>
+      </c>
+      <c r="K59" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D60" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E60" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F60" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G60" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I60" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J60" t="s">
+        <v>488</v>
+      </c>
+      <c r="K60" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D61" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E61" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G61" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H61" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I61" t="s">
+        <v>486</v>
+      </c>
+      <c r="J61" t="s">
         <v>487</v>
+      </c>
+      <c r="K61" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D62" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F62" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H62" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I62" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J62" t="s">
+        <v>488</v>
+      </c>
+      <c r="K62" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D63" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E63" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G63" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I63" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J63" t="s">
+        <v>488</v>
+      </c>
+      <c r="K63" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D64" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F64" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G64" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H64" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I64" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J64" t="s">
+        <v>490</v>
+      </c>
+      <c r="K64" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D65" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E65" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F65" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H65" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I65" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J65" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D66" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F66" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G66" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H66" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I66" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J66" t="s">
+        <v>488</v>
+      </c>
+      <c r="K66" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D67" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E67" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G67" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H67" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I67" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J67" t="s">
+        <v>27</v>
+      </c>
+      <c r="K67" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D68" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E68" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F68" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G68" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H68" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I68" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J68" t="s">
+        <v>488</v>
+      </c>
+      <c r="K68" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C69" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D69" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E69" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G69" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H69" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I69" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J69" t="s">
+        <v>488</v>
+      </c>
+      <c r="K69" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D70" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E70" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G70" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H70" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I70" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J70" t="s">
+        <v>33</v>
+      </c>
+      <c r="K70" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D71" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F71" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G71" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H71" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I71" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J71" t="s">
+        <v>491</v>
+      </c>
+      <c r="K71" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D72" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E72" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F72" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G72" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H72" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I72" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J72" t="s">
+        <v>491</v>
+      </c>
+      <c r="K72" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D73" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E73" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F73" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G73" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H73" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I73" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J73" t="s">
+        <v>491</v>
+      </c>
+      <c r="K73" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D74" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E74" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F74" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G74" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H74" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I74" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J74" t="s">
+        <v>492</v>
+      </c>
+      <c r="K74" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D75" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E75" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F75" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G75" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H75" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I75" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J75" t="s">
+        <v>37</v>
+      </c>
+      <c r="K75" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="D76" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
       <c r="E76" t="s">
-        <v>140</v>
+        <v>335</v>
       </c>
       <c r="F76" t="s">
-        <v>140</v>
+        <v>408</v>
       </c>
       <c r="G76" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H76" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I76" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J76" t="s">
+        <v>39</v>
+      </c>
+      <c r="K76" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E77" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F77" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="G77" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H77" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I77" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J77" t="s">
+        <v>40</v>
+      </c>
+      <c r="K77" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E78" t="s">
-        <v>140</v>
+        <v>335</v>
       </c>
       <c r="F78" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="G78" t="s">
-        <v>140</v>
+        <v>461</v>
       </c>
       <c r="H78" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I78" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J78" t="s">
+        <v>41</v>
+      </c>
+      <c r="K78" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E79" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F79" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="G79" t="s">
-        <v>462</v>
+        <v>336</v>
       </c>
       <c r="H79" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I79" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J79" t="s">
+        <v>42</v>
+      </c>
+      <c r="K79" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E80" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F80" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G80" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H80" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I80" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J80" t="s">
+        <v>44</v>
+      </c>
+      <c r="K80" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C81" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="D81" t="s">
-        <v>140</v>
+        <v>310</v>
       </c>
       <c r="E81" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F81" t="s">
-        <v>140</v>
+        <v>376</v>
       </c>
       <c r="G81" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H81" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I81" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J81" t="s">
+        <v>44</v>
+      </c>
+      <c r="K81" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B82" t="s">
         <v>145</v>
       </c>
       <c r="C82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" t="s">
         <v>311</v>
       </c>
       <c r="E82" t="s">
-        <v>140</v>
+        <v>347</v>
       </c>
       <c r="F82" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="G82" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H82" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I82" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J82" t="s">
+        <v>55</v>
+      </c>
+      <c r="K82" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B83" t="s">
         <v>146</v>
       </c>
       <c r="C83" t="s">
-        <v>230</v>
+        <v>146</v>
       </c>
       <c r="D83" t="s">
-        <v>312</v>
+        <v>146</v>
       </c>
       <c r="E83" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F83" t="s">
-        <v>377</v>
+        <v>146</v>
       </c>
       <c r="G83" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H83" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I83" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J83" t="s">
+        <v>55</v>
+      </c>
+      <c r="K83" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s">
         <v>147</v>
       </c>
       <c r="C84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D84" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E84" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F84" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="G84" t="s">
-        <v>140</v>
+        <v>462</v>
       </c>
       <c r="H84" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I84" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J84" t="s">
+        <v>495</v>
+      </c>
+      <c r="K84" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s">
         <v>148</v>
       </c>
       <c r="C85" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="D85" t="s">
-        <v>148</v>
+        <v>313</v>
       </c>
       <c r="E85" t="s">
-        <v>148</v>
+        <v>361</v>
       </c>
       <c r="F85" t="s">
-        <v>148</v>
+        <v>410</v>
       </c>
       <c r="G85" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
       <c r="H85" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I85" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J85" t="s">
+        <v>495</v>
+      </c>
+      <c r="K85" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s">
         <v>149</v>
@@ -4010,33 +4550,39 @@
         <v>314</v>
       </c>
       <c r="E86" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F86" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G86" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H86" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I86" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J86" t="s">
+        <v>493</v>
+      </c>
+      <c r="K86" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B87" t="s">
         <v>150</v>
       </c>
       <c r="C87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D87" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E87" t="s">
         <v>362</v>
@@ -4045,105 +4591,129 @@
         <v>411</v>
       </c>
       <c r="G87" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H87" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I87" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J87" t="s">
+        <v>493</v>
+      </c>
+      <c r="K87" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s">
         <v>151</v>
       </c>
       <c r="C88" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D88" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E88" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="F88" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G88" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H88" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I88" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J88" t="s">
+        <v>493</v>
+      </c>
+      <c r="K88" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s">
         <v>152</v>
       </c>
       <c r="C89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D89" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E89" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="F89" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="G89" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H89" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I89" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J89" t="s">
+        <v>494</v>
+      </c>
+      <c r="K89" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s">
         <v>153</v>
       </c>
       <c r="C90" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D90" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E90" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="F90" t="s">
         <v>409</v>
       </c>
       <c r="G90" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H90" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I90" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J90" t="s">
+        <v>494</v>
+      </c>
+      <c r="K90" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B91" t="s">
         <v>154</v>
@@ -4152,27 +4722,33 @@
         <v>235</v>
       </c>
       <c r="D91" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="E91" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="F91" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G91" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H91" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I91" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="J91" t="s">
+        <v>494</v>
+      </c>
+      <c r="K91" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B92" t="s">
         <v>155</v>
@@ -4181,27 +4757,33 @@
         <v>236</v>
       </c>
       <c r="D92" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E92" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="F92" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G92" t="s">
-        <v>469</v>
+        <v>336</v>
       </c>
       <c r="H92" t="s">
         <v>484</v>
       </c>
       <c r="I92" t="s">
+        <v>485</v>
+      </c>
+      <c r="J92" t="s">
         <v>487</v>
+      </c>
+      <c r="K92" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
         <v>156</v>
@@ -4210,91 +4792,109 @@
         <v>237</v>
       </c>
       <c r="D93" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="E93" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="F93" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="G93" t="s">
-        <v>470</v>
+        <v>336</v>
       </c>
       <c r="H93" t="s">
         <v>484</v>
       </c>
       <c r="I93" t="s">
+        <v>485</v>
+      </c>
+      <c r="J93" t="s">
         <v>487</v>
+      </c>
+      <c r="K93" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D94" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E94" t="s">
-        <v>140</v>
+        <v>363</v>
       </c>
       <c r="F94" t="s">
         <v>413</v>
       </c>
       <c r="G94" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H94" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I94" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J94" t="s">
+        <v>487</v>
+      </c>
+      <c r="K94" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E95" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F95" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G95" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H95" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I95" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J95" t="s">
+        <v>487</v>
+      </c>
+      <c r="K95" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B96" t="s">
         <v>158</v>
       </c>
       <c r="C96" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D96" t="s">
         <v>319</v>
@@ -4306,140 +4906,170 @@
         <v>414</v>
       </c>
       <c r="G96" t="s">
-        <v>140</v>
+        <v>470</v>
       </c>
       <c r="H96" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I96" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J96" t="s">
+        <v>487</v>
+      </c>
+      <c r="K96" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B97" t="s">
         <v>159</v>
       </c>
       <c r="C97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D97" t="s">
         <v>320</v>
       </c>
       <c r="E97" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F97" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G97" t="s">
-        <v>140</v>
+        <v>471</v>
       </c>
       <c r="H97" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I97" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J97" t="s">
+        <v>487</v>
+      </c>
+      <c r="K97" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B98" t="s">
         <v>160</v>
       </c>
       <c r="C98" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="D98" t="s">
         <v>321</v>
       </c>
       <c r="E98" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F98" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G98" t="s">
-        <v>471</v>
+        <v>336</v>
       </c>
       <c r="H98" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I98" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J98" t="s">
+        <v>487</v>
+      </c>
+      <c r="K98" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B99" t="s">
         <v>161</v>
       </c>
       <c r="C99" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D99" t="s">
         <v>322</v>
       </c>
       <c r="E99" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F99" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G99" t="s">
         <v>472</v>
       </c>
       <c r="H99" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I99" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J99" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B100" t="s">
         <v>162</v>
       </c>
       <c r="C100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D100" t="s">
         <v>323</v>
       </c>
       <c r="E100" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F100" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G100" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I100" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J100" t="s">
+        <v>487</v>
+      </c>
+      <c r="K100" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B101" t="s">
         <v>163</v>
       </c>
       <c r="C101" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="D101" t="s">
         <v>324</v>
@@ -4451,259 +5081,313 @@
         <v>418</v>
       </c>
       <c r="G101" t="s">
-        <v>473</v>
+        <v>336</v>
       </c>
       <c r="H101" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I101" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J101" t="s">
+        <v>487</v>
+      </c>
+      <c r="K101" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B102" t="s">
         <v>164</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D102" t="s">
         <v>325</v>
       </c>
       <c r="E102" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F102" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G102" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H102" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I102" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J102" t="s">
+        <v>53</v>
+      </c>
+      <c r="K102" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B103" t="s">
         <v>165</v>
       </c>
       <c r="C103" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D103" t="s">
         <v>326</v>
       </c>
       <c r="E103" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F103" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G103" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H103" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I103" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J103" t="s">
+        <v>487</v>
+      </c>
+      <c r="K103" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B104" t="s">
         <v>166</v>
       </c>
       <c r="C104" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="D104" t="s">
         <v>327</v>
       </c>
       <c r="E104" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F104" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G104" t="s">
-        <v>140</v>
+        <v>473</v>
       </c>
       <c r="H104" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I104" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J104" t="s">
+        <v>492</v>
+      </c>
+      <c r="K104" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B105" t="s">
         <v>167</v>
       </c>
       <c r="C105" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="D105" t="s">
         <v>328</v>
       </c>
       <c r="E105" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F105" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G105" t="s">
-        <v>140</v>
+        <v>474</v>
       </c>
       <c r="H105" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I105" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J105" t="s">
+        <v>39</v>
+      </c>
+      <c r="K105" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="C106" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="D106" t="s">
-        <v>140</v>
+        <v>328</v>
       </c>
       <c r="E106" t="s">
-        <v>140</v>
+        <v>370</v>
       </c>
       <c r="F106" t="s">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="G106" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H106" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I106" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J106" t="s">
+        <v>39</v>
+      </c>
+      <c r="K106" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B107" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C107" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="D107" t="s">
-        <v>329</v>
+        <v>169</v>
       </c>
       <c r="E107" t="s">
-        <v>370</v>
+        <v>169</v>
       </c>
       <c r="F107" t="s">
-        <v>420</v>
+        <v>169</v>
       </c>
       <c r="G107" t="s">
-        <v>474</v>
+        <v>336</v>
       </c>
       <c r="H107" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I107" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="J107" t="s">
+        <v>55</v>
+      </c>
+      <c r="K107" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B108" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="C108" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="D108" t="s">
-        <v>140</v>
+        <v>329</v>
       </c>
       <c r="E108" t="s">
-        <v>140</v>
+        <v>371</v>
       </c>
       <c r="F108" t="s">
-        <v>140</v>
+        <v>421</v>
       </c>
       <c r="G108" t="s">
-        <v>140</v>
+        <v>475</v>
       </c>
       <c r="H108" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I108" t="s">
         <v>486</v>
       </c>
+      <c r="J108" t="s">
+        <v>487</v>
+      </c>
+      <c r="K108" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C109" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="D109" t="s">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="E109" t="s">
-        <v>140</v>
+        <v>365</v>
       </c>
       <c r="F109" t="s">
-        <v>140</v>
+        <v>415</v>
       </c>
       <c r="G109" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H109" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I109" t="s">
         <v>486</v>
       </c>
+      <c r="J109" t="s">
+        <v>487</v>
+      </c>
+      <c r="K109" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B110" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C110" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="D110" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E110" t="s">
         <v>371</v>
@@ -4712,129 +5396,159 @@
         <v>421</v>
       </c>
       <c r="G110" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H110" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I110" t="s">
         <v>486</v>
       </c>
+      <c r="J110" t="s">
+        <v>487</v>
+      </c>
+      <c r="K110" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C111" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="D111" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E111" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F111" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G111" t="s">
-        <v>140</v>
+        <v>477</v>
       </c>
       <c r="H111" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I111" t="s">
         <v>486</v>
       </c>
+      <c r="J111" t="s">
+        <v>487</v>
+      </c>
+      <c r="K111" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="C112" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="D112" t="s">
-        <v>140</v>
+        <v>322</v>
       </c>
       <c r="E112" t="s">
-        <v>140</v>
+        <v>373</v>
       </c>
       <c r="F112" t="s">
-        <v>140</v>
+        <v>422</v>
       </c>
       <c r="G112" t="s">
-        <v>140</v>
+        <v>478</v>
       </c>
       <c r="H112" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I112" t="s">
         <v>486</v>
       </c>
+      <c r="J112" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B113" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="C113" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="D113" t="s">
-        <v>140</v>
+        <v>332</v>
       </c>
       <c r="E113" t="s">
-        <v>140</v>
+        <v>374</v>
       </c>
       <c r="F113" t="s">
-        <v>140</v>
+        <v>423</v>
       </c>
       <c r="G113" t="s">
-        <v>140</v>
+        <v>479</v>
       </c>
       <c r="H113" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I113" t="s">
         <v>486</v>
       </c>
+      <c r="J113" t="s">
+        <v>487</v>
+      </c>
+      <c r="K113" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B114" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="C114" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="D114" t="s">
-        <v>140</v>
+        <v>333</v>
       </c>
       <c r="E114" t="s">
-        <v>140</v>
+        <v>375</v>
       </c>
       <c r="F114" t="s">
-        <v>140</v>
+        <v>422</v>
       </c>
       <c r="G114" t="s">
-        <v>140</v>
+        <v>480</v>
       </c>
       <c r="H114" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I114" t="s">
         <v>486</v>
+      </c>
+      <c r="J114" t="s">
+        <v>487</v>
+      </c>
+      <c r="K114" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="115">
@@ -4842,724 +5556,104 @@
         <v>53</v>
       </c>
       <c r="B115" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C115" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="D115" t="s">
-        <v>171</v>
+        <v>320</v>
       </c>
       <c r="E115" t="s">
-        <v>171</v>
+        <v>365</v>
       </c>
       <c r="F115" t="s">
-        <v>171</v>
+        <v>415</v>
       </c>
       <c r="G115" t="s">
-        <v>140</v>
+        <v>481</v>
       </c>
       <c r="H115" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I115" t="s">
         <v>486</v>
       </c>
+      <c r="J115" t="s">
+        <v>53</v>
+      </c>
+      <c r="K115" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="C116" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="D116" t="s">
-        <v>140</v>
+        <v>334</v>
       </c>
       <c r="E116" t="s">
-        <v>140</v>
+        <v>375</v>
       </c>
       <c r="F116" t="s">
-        <v>140</v>
+        <v>422</v>
       </c>
       <c r="G116" t="s">
-        <v>140</v>
+        <v>482</v>
       </c>
       <c r="H116" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I116" t="s">
         <v>486</v>
       </c>
+      <c r="J116" t="s">
+        <v>487</v>
+      </c>
+      <c r="K116" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B117" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C117" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="D117" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="E117" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="F117" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="G117" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="H117" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I117" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>59</v>
-      </c>
-      <c r="B118" t="s">
-        <v>140</v>
-      </c>
-      <c r="C118" t="s">
-        <v>140</v>
-      </c>
-      <c r="D118" t="s">
-        <v>140</v>
-      </c>
-      <c r="E118" t="s">
-        <v>140</v>
-      </c>
-      <c r="F118" t="s">
-        <v>140</v>
-      </c>
-      <c r="G118" t="s">
-        <v>140</v>
-      </c>
-      <c r="H118" t="s">
-        <v>485</v>
-      </c>
-      <c r="I118" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>10</v>
-      </c>
-      <c r="B119" t="s">
-        <v>140</v>
-      </c>
-      <c r="C119" t="s">
-        <v>140</v>
-      </c>
-      <c r="D119" t="s">
-        <v>140</v>
-      </c>
-      <c r="E119" t="s">
-        <v>140</v>
-      </c>
-      <c r="F119" t="s">
-        <v>140</v>
-      </c>
-      <c r="G119" t="s">
-        <v>140</v>
-      </c>
-      <c r="H119" t="s">
-        <v>485</v>
-      </c>
-      <c r="I119" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>11</v>
-      </c>
-      <c r="B120" t="s">
-        <v>140</v>
-      </c>
-      <c r="C120" t="s">
-        <v>140</v>
-      </c>
-      <c r="D120" t="s">
-        <v>140</v>
-      </c>
-      <c r="E120" t="s">
-        <v>140</v>
-      </c>
-      <c r="F120" t="s">
-        <v>140</v>
-      </c>
-      <c r="G120" t="s">
-        <v>140</v>
-      </c>
-      <c r="H120" t="s">
-        <v>485</v>
-      </c>
-      <c r="I120" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>60</v>
-      </c>
-      <c r="B121" t="s">
-        <v>172</v>
-      </c>
-      <c r="C121" t="s">
-        <v>215</v>
-      </c>
-      <c r="D121" t="s">
-        <v>331</v>
-      </c>
-      <c r="E121" t="s">
-        <v>372</v>
-      </c>
-      <c r="F121" t="s">
-        <v>422</v>
-      </c>
-      <c r="G121" t="s">
-        <v>476</v>
-      </c>
-      <c r="H121" t="s">
-        <v>485</v>
-      </c>
-      <c r="I121" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>12</v>
-      </c>
-      <c r="B122" t="s">
-        <v>173</v>
-      </c>
-      <c r="C122" t="s">
-        <v>244</v>
-      </c>
-      <c r="D122" t="s">
-        <v>332</v>
-      </c>
-      <c r="E122" t="s">
-        <v>366</v>
-      </c>
-      <c r="F122" t="s">
-        <v>416</v>
-      </c>
-      <c r="G122" t="s">
-        <v>140</v>
-      </c>
-      <c r="H122" t="s">
-        <v>485</v>
-      </c>
-      <c r="I122" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>13</v>
-      </c>
-      <c r="B123" t="s">
-        <v>174</v>
-      </c>
-      <c r="C123" t="s">
-        <v>215</v>
-      </c>
-      <c r="D123" t="s">
-        <v>331</v>
-      </c>
-      <c r="E123" t="s">
-        <v>372</v>
-      </c>
-      <c r="F123" t="s">
-        <v>422</v>
-      </c>
-      <c r="G123" t="s">
-        <v>477</v>
-      </c>
-      <c r="H123" t="s">
-        <v>485</v>
-      </c>
-      <c r="I123" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" t="s">
-        <v>175</v>
-      </c>
-      <c r="C124" t="s">
-        <v>215</v>
-      </c>
-      <c r="D124" t="s">
-        <v>333</v>
-      </c>
-      <c r="E124" t="s">
-        <v>373</v>
-      </c>
-      <c r="F124" t="s">
-        <v>419</v>
-      </c>
-      <c r="G124" t="s">
-        <v>478</v>
-      </c>
-      <c r="H124" t="s">
-        <v>485</v>
-      </c>
-      <c r="I124" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>15</v>
-      </c>
-      <c r="B125" t="s">
-        <v>176</v>
-      </c>
-      <c r="C125" t="s">
-        <v>215</v>
-      </c>
-      <c r="D125" t="s">
-        <v>324</v>
-      </c>
-      <c r="E125" t="s">
-        <v>374</v>
-      </c>
-      <c r="F125" t="s">
-        <v>423</v>
-      </c>
-      <c r="G125" t="s">
-        <v>479</v>
-      </c>
-      <c r="H125" t="s">
-        <v>485</v>
-      </c>
-      <c r="I125" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>50</v>
-      </c>
-      <c r="B126" t="s">
-        <v>177</v>
-      </c>
-      <c r="C126" t="s">
-        <v>215</v>
-      </c>
-      <c r="D126" t="s">
-        <v>334</v>
-      </c>
-      <c r="E126" t="s">
-        <v>375</v>
-      </c>
-      <c r="F126" t="s">
-        <v>424</v>
-      </c>
-      <c r="G126" t="s">
-        <v>480</v>
-      </c>
-      <c r="H126" t="s">
-        <v>485</v>
-      </c>
-      <c r="I126" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>16</v>
-      </c>
-      <c r="B127" t="s">
-        <v>178</v>
-      </c>
-      <c r="C127" t="s">
-        <v>215</v>
-      </c>
-      <c r="D127" t="s">
-        <v>335</v>
-      </c>
-      <c r="E127" t="s">
-        <v>376</v>
-      </c>
-      <c r="F127" t="s">
-        <v>423</v>
-      </c>
-      <c r="G127" t="s">
-        <v>481</v>
-      </c>
-      <c r="H127" t="s">
-        <v>485</v>
-      </c>
-      <c r="I127" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>51</v>
-      </c>
-      <c r="B128" t="s">
-        <v>179</v>
-      </c>
-      <c r="C128" t="s">
-        <v>215</v>
-      </c>
-      <c r="D128" t="s">
-        <v>322</v>
-      </c>
-      <c r="E128" t="s">
-        <v>366</v>
-      </c>
-      <c r="F128" t="s">
-        <v>416</v>
-      </c>
-      <c r="G128" t="s">
-        <v>482</v>
-      </c>
-      <c r="H128" t="s">
-        <v>485</v>
-      </c>
-      <c r="I128" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>17</v>
-      </c>
-      <c r="B129" t="s">
-        <v>180</v>
-      </c>
-      <c r="C129" t="s">
-        <v>215</v>
-      </c>
-      <c r="D129" t="s">
-        <v>336</v>
-      </c>
-      <c r="E129" t="s">
-        <v>376</v>
-      </c>
-      <c r="F129" t="s">
-        <v>423</v>
-      </c>
-      <c r="G129" t="s">
-        <v>483</v>
-      </c>
-      <c r="H129" t="s">
-        <v>485</v>
-      </c>
-      <c r="I129" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>61</v>
-      </c>
-      <c r="B130" t="s">
-        <v>140</v>
-      </c>
-      <c r="C130" t="s">
-        <v>140</v>
-      </c>
-      <c r="D130" t="s">
-        <v>140</v>
-      </c>
-      <c r="E130" t="s">
-        <v>140</v>
-      </c>
-      <c r="F130" t="s">
-        <v>140</v>
-      </c>
-      <c r="G130" t="s">
-        <v>140</v>
-      </c>
-      <c r="H130" t="s">
-        <v>485</v>
-      </c>
-      <c r="I130" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>35</v>
-      </c>
-      <c r="B131" t="s">
-        <v>140</v>
-      </c>
-      <c r="C131" t="s">
-        <v>140</v>
-      </c>
-      <c r="D131" t="s">
-        <v>140</v>
-      </c>
-      <c r="E131" t="s">
-        <v>140</v>
-      </c>
-      <c r="F131" t="s">
-        <v>140</v>
-      </c>
-      <c r="G131" t="s">
-        <v>140</v>
-      </c>
-      <c r="H131" t="s">
-        <v>485</v>
-      </c>
-      <c r="I131" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>36</v>
-      </c>
-      <c r="B132" t="s">
-        <v>140</v>
-      </c>
-      <c r="C132" t="s">
-        <v>140</v>
-      </c>
-      <c r="D132" t="s">
-        <v>140</v>
-      </c>
-      <c r="E132" t="s">
-        <v>140</v>
-      </c>
-      <c r="F132" t="s">
-        <v>140</v>
-      </c>
-      <c r="G132" t="s">
-        <v>140</v>
-      </c>
-      <c r="H132" t="s">
-        <v>485</v>
-      </c>
-      <c r="I132" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>37</v>
-      </c>
-      <c r="B133" t="s">
-        <v>140</v>
-      </c>
-      <c r="C133" t="s">
-        <v>140</v>
-      </c>
-      <c r="D133" t="s">
-        <v>140</v>
-      </c>
-      <c r="E133" t="s">
-        <v>140</v>
-      </c>
-      <c r="F133" t="s">
-        <v>140</v>
-      </c>
-      <c r="G133" t="s">
-        <v>140</v>
-      </c>
-      <c r="H133" t="s">
-        <v>485</v>
-      </c>
-      <c r="I133" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>38</v>
-      </c>
-      <c r="B134" t="s">
-        <v>140</v>
-      </c>
-      <c r="C134" t="s">
-        <v>140</v>
-      </c>
-      <c r="D134" t="s">
-        <v>140</v>
-      </c>
-      <c r="E134" t="s">
-        <v>140</v>
-      </c>
-      <c r="F134" t="s">
-        <v>140</v>
-      </c>
-      <c r="G134" t="s">
-        <v>140</v>
-      </c>
-      <c r="H134" t="s">
-        <v>485</v>
-      </c>
-      <c r="I134" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>39</v>
-      </c>
-      <c r="B135" t="s">
-        <v>140</v>
-      </c>
-      <c r="C135" t="s">
-        <v>140</v>
-      </c>
-      <c r="D135" t="s">
-        <v>140</v>
-      </c>
-      <c r="E135" t="s">
-        <v>140</v>
-      </c>
-      <c r="F135" t="s">
-        <v>140</v>
-      </c>
-      <c r="G135" t="s">
-        <v>140</v>
-      </c>
-      <c r="H135" t="s">
-        <v>485</v>
-      </c>
-      <c r="I135" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
+      <c r="J117" t="s">
         <v>64</v>
       </c>
-      <c r="B136" t="s">
-        <v>140</v>
-      </c>
-      <c r="C136" t="s">
-        <v>140</v>
-      </c>
-      <c r="D136" t="s">
-        <v>140</v>
-      </c>
-      <c r="E136" t="s">
-        <v>140</v>
-      </c>
-      <c r="F136" t="s">
-        <v>140</v>
-      </c>
-      <c r="G136" t="s">
-        <v>140</v>
-      </c>
-      <c r="H136" t="s">
-        <v>485</v>
-      </c>
-      <c r="I136" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>64</v>
-      </c>
-      <c r="B137" t="s">
-        <v>181</v>
-      </c>
-      <c r="C137" t="s">
-        <v>181</v>
-      </c>
-      <c r="D137" t="s">
-        <v>181</v>
-      </c>
-      <c r="E137" t="s">
-        <v>181</v>
-      </c>
-      <c r="F137" t="s">
-        <v>181</v>
-      </c>
-      <c r="G137" t="s">
-        <v>140</v>
-      </c>
-      <c r="H137" t="s">
-        <v>485</v>
-      </c>
-      <c r="I137" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>65</v>
-      </c>
-      <c r="B138" t="s">
-        <v>140</v>
-      </c>
-      <c r="C138" t="s">
-        <v>140</v>
-      </c>
-      <c r="D138" t="s">
-        <v>140</v>
-      </c>
-      <c r="E138" t="s">
-        <v>140</v>
-      </c>
-      <c r="F138" t="s">
-        <v>140</v>
-      </c>
-      <c r="G138" t="s">
-        <v>140</v>
-      </c>
-      <c r="H138" t="s">
-        <v>485</v>
-      </c>
-      <c r="I138" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>47</v>
-      </c>
-      <c r="B139" t="s">
-        <v>140</v>
-      </c>
-      <c r="C139" t="s">
-        <v>140</v>
-      </c>
-      <c r="D139" t="s">
-        <v>140</v>
-      </c>
-      <c r="E139" t="s">
-        <v>140</v>
-      </c>
-      <c r="F139" t="s">
-        <v>140</v>
-      </c>
-      <c r="G139" t="s">
-        <v>140</v>
-      </c>
-      <c r="H139" t="s">
-        <v>485</v>
-      </c>
-      <c r="I139" t="s">
-        <v>487</v>
+      <c r="K117" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>

--- a/proj_wikipedia/records_athletics/records_athletics_table.xlsx
+++ b/proj_wikipedia/records_athletics/records_athletics_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="616">
   <si>
     <t>Event</t>
   </si>
@@ -41,7 +41,7 @@
     <t>sex</t>
   </si>
   <si>
-    <t>units</t>
+    <t>Athlete_profile</t>
   </si>
   <si>
     <t>category</t>
@@ -56,6 +56,12 @@
     <t>400 m</t>
   </si>
   <si>
+    <t>500 m</t>
+  </si>
+  <si>
+    <t>600 m</t>
+  </si>
+  <si>
     <t>800 m</t>
   </si>
   <si>
@@ -68,15 +74,24 @@
     <t>Mile</t>
   </si>
   <si>
+    <t>2000 m</t>
+  </si>
+  <si>
     <t>3000 m</t>
   </si>
   <si>
+    <t>Two miles</t>
+  </si>
+  <si>
     <t>5000 m</t>
   </si>
   <si>
     <t>5 km (road)</t>
   </si>
   <si>
+    <t>8 km (road)</t>
+  </si>
+  <si>
     <t>10000 m</t>
   </si>
   <si>
@@ -89,1206 +104,1532 @@
     <t>10 miles (road)</t>
   </si>
   <si>
+    <t>20 km (road)</t>
+  </si>
+  <si>
+    <t>Half marathon</t>
+  </si>
+  <si>
+    <t>One hour</t>
+  </si>
+  <si>
+    <t>25000 m (track)</t>
+  </si>
+  <si>
+    <t>25 km (road)</t>
+  </si>
+  <si>
+    <t>30000 m (track)</t>
+  </si>
+  <si>
+    <t>30 km (road)</t>
+  </si>
+  <si>
+    <t>Marathon</t>
+  </si>
+  <si>
+    <t>110 m hurdles</t>
+  </si>
+  <si>
+    <t>400 m hurdles</t>
+  </si>
+  <si>
+    <t>3000 m steeplechase</t>
+  </si>
+  <si>
+    <t>High jump</t>
+  </si>
+  <si>
+    <t>Pole vault</t>
+  </si>
+  <si>
+    <t>Long jump</t>
+  </si>
+  <si>
+    <t>Triple jump</t>
+  </si>
+  <si>
+    <t>Shot put</t>
+  </si>
+  <si>
+    <t>Discus throw</t>
+  </si>
+  <si>
+    <t>Hammer throw</t>
+  </si>
+  <si>
+    <t>Javelin throw</t>
+  </si>
+  <si>
+    <t>Decathlon</t>
+  </si>
+  <si>
+    <t>20 km walk (road)</t>
+  </si>
+  <si>
+    <t>50 km walk (road)</t>
+  </si>
+  <si>
+    <t>4×100 m relay</t>
+  </si>
+  <si>
+    <t>4×200 m relay</t>
+  </si>
+  <si>
+    <t>4×400 m relay</t>
+  </si>
+  <si>
+    <t>4×800 m relay</t>
+  </si>
+  <si>
+    <t>Distance medley relay</t>
+  </si>
+  <si>
+    <t>4×1500 m relay</t>
+  </si>
+  <si>
+    <t>Ekiden relay</t>
+  </si>
+  <si>
+    <t>4 miles (road)</t>
+  </si>
+  <si>
     <t>20000 m (track)</t>
   </si>
   <si>
-    <t>20 km (road)</t>
-  </si>
-  <si>
-    <t>Half marathon</t>
-  </si>
-  <si>
-    <t>One hour</t>
-  </si>
-  <si>
-    <t>25 km (road)</t>
-  </si>
-  <si>
-    <t>30 km (road)</t>
-  </si>
-  <si>
-    <t>35 km (road)</t>
-  </si>
-  <si>
-    <t>40 km (road)</t>
-  </si>
-  <si>
-    <t>Marathon</t>
-  </si>
-  <si>
-    <t>110 m hurdles</t>
-  </si>
-  <si>
-    <t>400 m hurdles</t>
-  </si>
-  <si>
-    <t>3000 m steeplechase</t>
-  </si>
-  <si>
-    <t>High jump</t>
-  </si>
-  <si>
-    <t>Pole vault</t>
-  </si>
-  <si>
-    <t>Long jump</t>
-  </si>
-  <si>
-    <t>Triple jump</t>
-  </si>
-  <si>
-    <t>Shot put</t>
-  </si>
-  <si>
-    <t>Discus throw</t>
-  </si>
-  <si>
-    <t>Hammer throw</t>
-  </si>
-  <si>
-    <t>Javelin throw</t>
-  </si>
-  <si>
-    <t>Decathlon</t>
-  </si>
-  <si>
-    <t>20 km walk (road)</t>
-  </si>
-  <si>
-    <t>50 km walk (road)</t>
-  </si>
-  <si>
-    <t>4x100 m relay</t>
-  </si>
-  <si>
-    <t>4x400 m relay</t>
-  </si>
-  <si>
-    <t>Distance medley relay</t>
-  </si>
-  <si>
-    <t>4×1500 m relay</t>
-  </si>
-  <si>
-    <t>2000 m</t>
-  </si>
-  <si>
-    <t>Two miles</t>
-  </si>
-  <si>
     <t>100 m hurdles</t>
   </si>
   <si>
+    <t>2000 m steeplechase</t>
+  </si>
+  <si>
     <t>Heptathlon</t>
   </si>
   <si>
-    <t>5000 m walk (track)</t>
-  </si>
-  <si>
     <t>10000 m walk (track)</t>
   </si>
   <si>
-    <t>10 km walk (road)</t>
-  </si>
-  <si>
-    <t>15 km walk (road)</t>
-  </si>
-  <si>
-    <t>4×800 m relay</t>
-  </si>
-  <si>
     <t>60 m</t>
   </si>
   <si>
-    <t>600 m</t>
-  </si>
-  <si>
-    <t>2000 m steeplechase</t>
+    <t>300 m</t>
+  </si>
+  <si>
+    <t>60 m hurdles</t>
+  </si>
+  <si>
+    <t>Weight Throw (20 lb)</t>
   </si>
   <si>
     <t>Pentathlon</t>
   </si>
   <si>
-    <t>10.61 A (-0.4 m/s)</t>
-  </si>
-  <si>
-    <t>10.1 A #</t>
-  </si>
-  <si>
-    <t>21.30</t>
-  </si>
-  <si>
-    <t>20.7 A #</t>
-  </si>
-  <si>
-    <t>45.42 A</t>
-  </si>
-  <si>
-    <t>1:42.37</t>
-  </si>
-  <si>
-    <t>2:15.75</t>
-  </si>
-  <si>
-    <t>3:29.91</t>
-  </si>
-  <si>
-    <t>3:48.60</t>
-  </si>
-  <si>
-    <t>7:25.09</t>
-  </si>
-  <si>
-    <t>12:37.35</t>
-  </si>
-  <si>
-    <t>13:10</t>
-  </si>
-  <si>
-    <t>26:17.53</t>
-  </si>
-  <si>
-    <t>27:02</t>
-  </si>
-  <si>
-    <t>41:29+</t>
-  </si>
-  <si>
-    <t>44:23</t>
-  </si>
-  <si>
-    <t>56:25.98+</t>
-  </si>
-  <si>
-    <t>55:48+</t>
-  </si>
-  <si>
-    <t>58:47</t>
-  </si>
-  <si>
-    <t>21285 m</t>
-  </si>
-  <si>
-    <t>1:12:47+</t>
-  </si>
-  <si>
-    <t>1:11:37 #</t>
-  </si>
-  <si>
-    <t>1:27:30+</t>
-  </si>
-  <si>
-    <t>1:42:01+</t>
-  </si>
-  <si>
-    <t>1:56:55+</t>
-  </si>
-  <si>
-    <t>2:03:03</t>
-  </si>
-  <si>
-    <t>14.62 (-0.1 m/s)</t>
-  </si>
-  <si>
-    <t>14.3 A #</t>
-  </si>
-  <si>
-    <t>51.26</t>
-  </si>
-  <si>
-    <t>8:06.16</t>
-  </si>
-  <si>
-    <t>2.05 m A</t>
-  </si>
-  <si>
-    <t>4.00 m</t>
-  </si>
-  <si>
-    <t>7.50 m A</t>
-  </si>
-  <si>
-    <t>15.32 m A</t>
-  </si>
-  <si>
-    <t>15.98 m A</t>
-  </si>
-  <si>
-    <t>45.57 m A</t>
-  </si>
-  <si>
-    <t>46.12 m</t>
-  </si>
-  <si>
-    <t>67.99 m A</t>
-  </si>
-  <si>
-    <t>5918 pts A</t>
-  </si>
-  <si>
-    <t>11.97 (100 m), 5.89 m (long jump), 11.05 m (shot put), 1.63 m (high jump), 51.83 (400 m) /
-17.58 (110 m hurdles), 30.48 m (discus), 2.80 m (pole vault), 59.64 m (javelin), 4:14.63 (1500 m)</t>
-  </si>
-  <si>
-    <t>1:25:28 A</t>
-  </si>
-  <si>
-    <t>4:58:54</t>
-  </si>
-  <si>
-    <t>40.76 A</t>
-  </si>
-  <si>
-    <t>3:07:11</t>
-  </si>
-  <si>
-    <t>9:16.34</t>
-  </si>
-  <si>
-    <t>14:41.22</t>
-  </si>
-  <si>
-    <t>12.10</t>
-  </si>
-  <si>
-    <t>11.8 A #</t>
-  </si>
-  <si>
-    <t>11.55 A #</t>
-  </si>
-  <si>
-    <t>23.84 A (-1.6 m/s)</t>
-  </si>
-  <si>
-    <t>51.44 A</t>
-  </si>
-  <si>
-    <t>1:57.48</t>
-  </si>
-  <si>
-    <t>3:50.07</t>
-  </si>
-  <si>
-    <t>4:14.30</t>
-  </si>
-  <si>
-    <t>5:27.50</t>
-  </si>
-  <si>
-    <t>8:22.22</t>
-  </si>
-  <si>
-    <t>8:58.58</t>
-  </si>
-  <si>
-    <t>14:11.15</t>
-  </si>
-  <si>
-    <t>14:46</t>
-  </si>
-  <si>
-    <t>29:17.45</t>
-  </si>
-  <si>
-    <t>30:30</t>
-  </si>
-  <si>
-    <t>46:27.7</t>
-  </si>
-  <si>
-    <t>1:05:35.3</t>
-  </si>
-  <si>
-    <t>18517 m</t>
-  </si>
-  <si>
-    <t>1:02:47+</t>
-  </si>
-  <si>
-    <t>1:06:14</t>
-  </si>
-  <si>
-    <t>1:20:51+</t>
-  </si>
-  <si>
-    <t>1:37:23+</t>
-  </si>
-  <si>
-    <t>2:17:56</t>
-  </si>
-  <si>
-    <t>16.14</t>
-  </si>
-  <si>
-    <t>15.22 A #</t>
-  </si>
-  <si>
-    <t>57.60 A</t>
-  </si>
-  <si>
-    <t>9:09.00</t>
-  </si>
-  <si>
-    <t>1.80 m</t>
-  </si>
-  <si>
-    <t>6.23 m</t>
-  </si>
-  <si>
-    <t>12.07 m</t>
-  </si>
-  <si>
-    <t>12.86 m</t>
-  </si>
-  <si>
-    <t>38.39 m A</t>
-  </si>
-  <si>
-    <t>44.63 m A</t>
-  </si>
-  <si>
-    <t>44.77 m A</t>
-  </si>
-  <si>
-    <t>3270 pts A</t>
-  </si>
-  <si>
-    <t>17.39 (100 m hurdles), 1.30 m (high jump), 8.13 m (shot put), 29.11 (200 m) / 4.12 m (long jump), 27.18 m (javelin), 2:38.11 (800 m)</t>
-  </si>
-  <si>
-    <t>22:59.19</t>
-  </si>
-  <si>
-    <t>45:33.69</t>
-  </si>
-  <si>
-    <t>45:40+</t>
-  </si>
-  <si>
-    <t>1:10:11+</t>
-  </si>
-  <si>
-    <t>1:31:58</t>
-  </si>
-  <si>
-    <t>46.46 A</t>
-  </si>
-  <si>
-    <t>3:39.82</t>
-  </si>
-  <si>
-    <t>8:30.65</t>
-  </si>
-  <si>
-    <t>6.82</t>
-  </si>
-  <si>
-    <t>21.90</t>
-  </si>
-  <si>
-    <t>46.96</t>
-  </si>
-  <si>
-    <t>1:15.31</t>
-  </si>
-  <si>
-    <t>1:44.52</t>
-  </si>
-  <si>
-    <t>3:31.76</t>
-  </si>
-  <si>
-    <t>3:54.02</t>
-  </si>
-  <si>
-    <t>4:49.99</t>
-  </si>
-  <si>
-    <t>7:26.15</t>
-  </si>
-  <si>
-    <t>8:04.35</t>
-  </si>
-  <si>
-    <t>12:49.60</t>
-  </si>
-  <si>
-    <t>5:20.03</t>
-  </si>
-  <si>
-    <t>6.98 m (2nd jump)</t>
-  </si>
-  <si>
-    <t>6.98 m (3rd jump)</t>
+    <t>10.23 A (+0.8 m/s)</t>
+  </si>
+  <si>
+    <t>20.14 (+1.9 m/s)</t>
+  </si>
+  <si>
+    <t>44.18</t>
+  </si>
+  <si>
+    <t>57.69 [4]</t>
+  </si>
+  <si>
+    <t>1:13.10</t>
+  </si>
+  <si>
+    <t>1:40.91</t>
+  </si>
+  <si>
+    <t>2:11.96</t>
+  </si>
+  <si>
+    <t>3:26.34</t>
+  </si>
+  <si>
+    <t>3:43.40</t>
+  </si>
+  <si>
+    <t>4:48.74</t>
+  </si>
+  <si>
+    <t>7:20.67</t>
+  </si>
+  <si>
+    <t>7:58.61</t>
+  </si>
+  <si>
+    <t>12:39.74</t>
+  </si>
+  <si>
+    <t>12:59.5</t>
+  </si>
+  <si>
+    <t>21:54+</t>
+  </si>
+  <si>
+    <t>26:27.85</t>
+  </si>
+  <si>
+    <t>26:44</t>
+  </si>
+  <si>
+    <t>41:13</t>
+  </si>
+  <si>
+    <t>44:27</t>
+  </si>
+  <si>
+    <t>56:41</t>
+  </si>
+  <si>
+    <t>58:33</t>
+  </si>
+  <si>
+    <t>20,797 m</t>
+  </si>
+  <si>
+    <t>1:12:25.4+</t>
+  </si>
+  <si>
+    <t>1:11:18</t>
+  </si>
+  <si>
+    <t>1:26:47.4</t>
+  </si>
+  <si>
+    <t>1:27:13+</t>
+  </si>
+  <si>
+    <t>2:02:57</t>
+  </si>
+  <si>
+    <t>2:00:25</t>
+  </si>
+  <si>
+    <t>13.69</t>
+  </si>
+  <si>
+    <t>47.78</t>
+  </si>
+  <si>
+    <t>7:53.64</t>
+  </si>
+  <si>
+    <t>2.25 m A</t>
+  </si>
+  <si>
+    <t>4.60 m A</t>
+  </si>
+  <si>
+    <t>8.12 m</t>
+  </si>
+  <si>
+    <t>17.12 m A</t>
+  </si>
+  <si>
+    <t>18.19 m A</t>
+  </si>
+  <si>
+    <t>56.08 m A</t>
+  </si>
+  <si>
+    <t>59.90 m A</t>
+  </si>
+  <si>
+    <t>92.72 m</t>
+  </si>
+  <si>
+    <t>7076 pts</t>
+  </si>
+  <si>
+    <t>11.41 (100 m), 7.08 m (long jump), 12.00 m (shot put), 1.89 m (high jump), 49.47 (400 m) /
+14.51 (110 m hurdles), 37.72 m (discus), 3.10 m (pole vault), 57.80 m (javelin), 4:35.57 (1500 m)</t>
+  </si>
+  <si>
+    <t>1:19:24</t>
+  </si>
+  <si>
+    <t>1:18.20 A #[a]</t>
+  </si>
+  <si>
+    <t>4:25:24</t>
+  </si>
+  <si>
+    <t>39.40 A</t>
+  </si>
+  <si>
+    <t>1:22.35</t>
+  </si>
+  <si>
+    <t>2:59.63</t>
+  </si>
+  <si>
+    <t>7:02.43</t>
+  </si>
+  <si>
+    <t>9:15.56</t>
+  </si>
+  <si>
+    <t>14:22.22</t>
+  </si>
+  <si>
+    <t>1:57:06</t>
+  </si>
+  <si>
+    <t>11.47 (+0.6 m/s)</t>
+  </si>
+  <si>
+    <t>23.37</t>
+  </si>
+  <si>
+    <t>22.4 A (ht)</t>
+  </si>
+  <si>
+    <t>51.14 A</t>
+  </si>
+  <si>
+    <t>50.71 X</t>
+  </si>
+  <si>
+    <t>1:23.35</t>
+  </si>
+  <si>
+    <t>1:54.01</t>
+  </si>
+  <si>
+    <t>2:35.39</t>
+  </si>
+  <si>
+    <t>3:56.41</t>
+  </si>
+  <si>
+    <t>4:16.71</t>
+  </si>
+  <si>
+    <t>5:31.52</t>
+  </si>
+  <si>
+    <t>8:20.68</t>
+  </si>
+  <si>
+    <t>9:14.09</t>
+  </si>
+  <si>
+    <t>14:20.87</t>
+  </si>
+  <si>
+    <t>19:14</t>
+  </si>
+  <si>
+    <t>29:32.53</t>
+  </si>
+  <si>
+    <t>30:04+</t>
+  </si>
+  <si>
+    <t>45:37+</t>
+  </si>
+  <si>
+    <t>50:05+</t>
+  </si>
+  <si>
+    <t>18340 m</t>
+  </si>
+  <si>
+    <t>1:05:26.6</t>
+  </si>
+  <si>
+    <t>1:01:25+</t>
+  </si>
+  <si>
+    <t>1:04:52</t>
+  </si>
+  <si>
+    <t>1:27:05.84</t>
+  </si>
+  <si>
+    <t>1:19:43+</t>
+  </si>
+  <si>
+    <t>1:45:50.00</t>
+  </si>
+  <si>
+    <t>1:36:05+</t>
+  </si>
+  <si>
+    <t>2:17:01</t>
+  </si>
+  <si>
+    <t>14.08 A</t>
+  </si>
+  <si>
+    <t>55.82 A</t>
+  </si>
+  <si>
+    <t>6:02.16</t>
+  </si>
+  <si>
+    <t>9:00.01</t>
+  </si>
+  <si>
+    <t>1.71 m A</t>
+  </si>
+  <si>
+    <t>3.15 m A</t>
+  </si>
+  <si>
+    <t>6.39 m A</t>
+  </si>
+  <si>
+    <t>12.91 m A</t>
+  </si>
+  <si>
+    <t>15.60 m A</t>
+  </si>
+  <si>
+    <t>49.68 m A</t>
+  </si>
+  <si>
+    <t>59.72 m A</t>
+  </si>
+  <si>
+    <t>53.58 m</t>
+  </si>
+  <si>
+    <t>5407 pts</t>
+  </si>
+  <si>
+    <t>14.78 (100 m hurdles), 1.53 m (high jump), 12.84 m (shot put), 26.02 (200 m) / 5.55 m (long jump), 41.50 m (javelin), 2:10.47 (800 m)</t>
+  </si>
+  <si>
+    <t>44:41.8 (ht) A</t>
+  </si>
+  <si>
+    <t>1:30:43</t>
+  </si>
+  <si>
+    <t>1:28:15 A #[a]</t>
+  </si>
+  <si>
+    <t>44.75</t>
+  </si>
+  <si>
+    <t>1:40.65</t>
+  </si>
+  <si>
+    <t>3:28.94 A</t>
+  </si>
+  <si>
+    <t>8:04.28</t>
+  </si>
+  <si>
+    <t>10:43.35</t>
+  </si>
+  <si>
+    <t>16:33.58</t>
+  </si>
+  <si>
+    <t>2:13:35</t>
+  </si>
+  <si>
+    <t>6.70</t>
+  </si>
+  <si>
+    <t>20.85</t>
+  </si>
+  <si>
+    <t>32.60 OT</t>
+  </si>
+  <si>
+    <t>45.98</t>
+  </si>
+  <si>
+    <t>1:14.97 A</t>
+  </si>
+  <si>
+    <t>1:44.71</t>
+  </si>
+  <si>
+    <t>2:15.50</t>
+  </si>
+  <si>
+    <t>3:32.11</t>
+  </si>
+  <si>
+    <t>3:52.01</t>
+  </si>
+  <si>
+    <t>8:06.48</t>
+  </si>
+  <si>
+    <t>7:24.90</t>
+  </si>
+  <si>
+    <t>12:51.48</t>
+  </si>
+  <si>
+    <t>27:50.29</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>5:13.77 [WB]</t>
+  </si>
+  <si>
+    <t>2.16 m</t>
+  </si>
+  <si>
+    <t>7.98 m A</t>
+  </si>
+  <si>
+    <t>16.70 m</t>
   </si>
   <si>
     <t>(60 m), (long jump), (shot put), (high jump) / (60 m hurdles), (pole vault), (1000 m)</t>
   </si>
   <si>
-    <t>1:29.36+</t>
-  </si>
-  <si>
-    <t>1:59.17</t>
-  </si>
-  <si>
-    <t>2:33.06</t>
-  </si>
-  <si>
-    <t>3:55.17</t>
-  </si>
-  <si>
-    <t>4:13.31</t>
-  </si>
-  <si>
-    <t>5:23.75</t>
-  </si>
-  <si>
-    <t>8:16.60</t>
-  </si>
-  <si>
-    <t>9:00.48</t>
-  </si>
-  <si>
-    <t>14:18.86</t>
+    <t>7.89</t>
+  </si>
+  <si>
+    <t>25.30</t>
+  </si>
+  <si>
+    <t>54.21</t>
+  </si>
+  <si>
+    <t>53.34 A OT</t>
+  </si>
+  <si>
+    <t>1:58.83</t>
+  </si>
+  <si>
+    <t>4:05.17</t>
+  </si>
+  <si>
+    <t>8:29.41</t>
+  </si>
+  <si>
+    <t>9:12.35</t>
+  </si>
+  <si>
+    <t>14:51.69</t>
+  </si>
+  <si>
+    <t>6.16 m A</t>
+  </si>
+  <si>
+    <t>14.41 m</t>
+  </si>
+  <si>
+    <t>18.02 m</t>
   </si>
   <si>
     <t>(60 m hurdles), (high jump), (shot put), (long jump), (800 m)</t>
   </si>
   <si>
-    <t>Wetere Galcha</t>
-  </si>
-  <si>
-    <t>Gebre Gebregzi</t>
-  </si>
-  <si>
-    <t>Negussie Gechamo</t>
-  </si>
-  <si>
-    <t>Tegegne Bezabeh</t>
-  </si>
-  <si>
-    <t>Mohamed Aman</t>
-  </si>
-  <si>
-    <t>Aman Wote</t>
-  </si>
-  <si>
-    <t>Haile Gebrselassie</t>
-  </si>
-  <si>
-    <t>Kenenisa Bekele</t>
-  </si>
-  <si>
-    <t>Birhanu Dejene</t>
-  </si>
-  <si>
-    <t>Deriba Merga</t>
-  </si>
-  <si>
-    <t>Atsedu Tsegay</t>
-  </si>
-  <si>
-    <t>Behailu Alemshet</t>
-  </si>
-  <si>
-    <t>Ubang Abaya</t>
-  </si>
-  <si>
-    <t>Aschalew Tesfaye</t>
-  </si>
-  <si>
-    <t>Roba Gari</t>
-  </si>
-  <si>
-    <t>Ogulla Obang</t>
-  </si>
-  <si>
-    <t>Samsom Basha Gemeda</t>
-  </si>
-  <si>
-    <t>Gashawbeza Lemma</t>
-  </si>
-  <si>
-    <t>Galwak Garkot</t>
-  </si>
-  <si>
-    <t>Samuel Kassaye</t>
-  </si>
-  <si>
-    <t>Biruk Abraham Arro</t>
-  </si>
-  <si>
-    <t>Bekele Tola</t>
-  </si>
-  <si>
-    <t>Cherenet Makore</t>
-  </si>
-  <si>
-    <t>Debeko Yanka Degife</t>
-  </si>
-  <si>
-    <t>EthiopiaAbyot LenchoMohammed Jud-MisbachTerefe TakisoWetere Galcha</t>
-  </si>
-  <si>
-    <t>Ethiopia
-A. Tesfaye
-B. Worku
-O. Bach
-A. Gudeta</t>
-  </si>
-  <si>
-    <t>Aisinet Abiyot 2:53.5 (1200m)Bereket Desta 46.0 (400m)Mohammed Aman 1:44.0 (800m)Aman Wote 3:52.8 (1600 m)</t>
-  </si>
-  <si>
-    <t>EthiopiaMekonnen GebremedhinSoresa FidaZebene AlemayehuAman Wote</t>
-  </si>
-  <si>
-    <t>Fethiya Hassen</t>
-  </si>
-  <si>
-    <t>Atkelt Wubeshet</t>
-  </si>
-  <si>
-    <t>Tegest Tamangnu Yuma</t>
-  </si>
-  <si>
-    <t>Genet Lire</t>
-  </si>
-  <si>
-    <t>Fantu Magiso</t>
-  </si>
-  <si>
-    <t>Genzebe Dibaba</t>
-  </si>
-  <si>
-    <t>Almaz Ayana</t>
-  </si>
-  <si>
-    <t>Meseret Defar</t>
-  </si>
-  <si>
-    <t>Tirunesh Dibaba</t>
-  </si>
-  <si>
-    <t>Dire Tune</t>
-  </si>
-  <si>
-    <t>Worknesh Degefa</t>
-  </si>
-  <si>
-    <t>Wali Engida</t>
-  </si>
-  <si>
-    <t>Asegedech Bekele</t>
-  </si>
-  <si>
-    <t>Zewde Hailemariam</t>
-  </si>
-  <si>
-    <t>Sofia Assefa</t>
-  </si>
-  <si>
-    <t>Ariyat Dibow Ubang</t>
-  </si>
-  <si>
-    <t>Hiwot Sisaye</t>
-  </si>
-  <si>
-    <t>Nibolo Ugada</t>
-  </si>
-  <si>
-    <t>Amele Yibeltal</t>
-  </si>
-  <si>
-    <t>Mersit Gebre-Egziabher</t>
-  </si>
-  <si>
-    <t>Abaynesh Sisay</t>
-  </si>
-  <si>
-    <t>Genet Tebalew</t>
-  </si>
-  <si>
-    <t>Aynalem Eshetu</t>
-  </si>
-  <si>
-    <t>Yehualeye Beletew</t>
-  </si>
-  <si>
-    <t>Askale Tiksa Benti</t>
-  </si>
-  <si>
-    <t>EthiopiaMantegbosh MeleseFetiya KedirLeaynet AlemuFantu Magiso</t>
-  </si>
-  <si>
-    <t>EthiopiaAbrhaley TakereGetachew AlulaGerezine GebremariamFantu Magiso</t>
-  </si>
-  <si>
-    <t>Dureti EdeoFeyne GudetoTizita BogaleAlem Gereziher</t>
-  </si>
-  <si>
-    <t>Berhane Haile</t>
-  </si>
-  <si>
-    <t>Alemayehu Gudeta</t>
-  </si>
-  <si>
-    <t>Mohammed Aman</t>
-  </si>
-  <si>
-    <t>Dawit Wolde</t>
-  </si>
-  <si>
-    <t>Getahun Berhan</t>
-  </si>
-  <si>
-    <t>Lingo Obang Ojulu</t>
-  </si>
-  <si>
-    <t>Kutre Dulecha</t>
-  </si>
-  <si>
-    <t>30 April 2008</t>
-  </si>
-  <si>
-    <t>6 June 1971</t>
-  </si>
-  <si>
-    <t>31 May 2007</t>
-  </si>
-  <si>
-    <t>17 May 1998</t>
-  </si>
-  <si>
-    <t>18 October 1968</t>
-  </si>
-  <si>
-    <t>6 September 2013</t>
-  </si>
-  <si>
-    <t>5 September 2014</t>
-  </si>
-  <si>
-    <t>18 July 2014</t>
-  </si>
-  <si>
-    <t>31 May 2014</t>
-  </si>
-  <si>
-    <t>28 August 1998</t>
-  </si>
-  <si>
-    <t>31 May 2004</t>
-  </si>
-  <si>
-    <t>3 April 2005</t>
-  </si>
-  <si>
-    <t>26 August 2005</t>
-  </si>
-  <si>
-    <t>11 December 2002</t>
-  </si>
-  <si>
-    <t>20 February 2009</t>
-  </si>
-  <si>
-    <t>4 September 2005</t>
-  </si>
-  <si>
-    <t>27 June 2007</t>
-  </si>
-  <si>
-    <t>15 January 2006</t>
-  </si>
-  <si>
-    <t>31 March 2012</t>
-  </si>
-  <si>
-    <t>25 September 2016</t>
-  </si>
-  <si>
-    <t>12 March 2006</t>
-  </si>
-  <si>
-    <t>13 September 2015</t>
-  </si>
-  <si>
-    <t>4 June 2005</t>
-  </si>
-  <si>
-    <t>1 September 1988</t>
+    <t>Mike Mokamba Nyang'au</t>
+  </si>
+  <si>
+    <t>Carvin Nkanata</t>
+  </si>
+  <si>
+    <t>Samson Kitur</t>
+  </si>
+  <si>
+    <t>David Rudisha</t>
+  </si>
+  <si>
+    <t>Noah Ngeny</t>
+  </si>
+  <si>
+    <t>Bernard Lagat</t>
+  </si>
+  <si>
+    <t>John Kemboi Kibowen</t>
+  </si>
+  <si>
+    <t>Daniel Komen</t>
+  </si>
+  <si>
+    <t>Sammy Kipketer</t>
+  </si>
+  <si>
+    <t>Isaiah Kiplangat Koech</t>
+  </si>
+  <si>
+    <t>Paul Tergat</t>
+  </si>
+  <si>
+    <t>Leonard Patrick Komon</t>
+  </si>
+  <si>
+    <t>Robert Kipchumba</t>
+  </si>
+  <si>
+    <t>Samuel Wanjiru</t>
+  </si>
+  <si>
+    <t>Kiplimo Kimutai</t>
+  </si>
+  <si>
+    <t>Moses Mosop</t>
+  </si>
+  <si>
+    <t>Dennis Kipruto Kimetto</t>
+  </si>
+  <si>
+    <t>Stanley Biwott</t>
+  </si>
+  <si>
+    <t>Eliud Kipchoge</t>
+  </si>
+  <si>
+    <t>Fatwell Kimaiyo</t>
+  </si>
+  <si>
+    <t>Boniface Mucheru Tumuti</t>
+  </si>
+  <si>
+    <t>Brimin Kipruto</t>
+  </si>
+  <si>
+    <t>Mathieu Kiplagat Sawe</t>
+  </si>
+  <si>
+    <t>Kenneth Kirui</t>
+  </si>
+  <si>
+    <t>Jacob Katonon</t>
+  </si>
+  <si>
+    <t>Robert Welikhe</t>
+  </si>
+  <si>
+    <t>James Nyambureti</t>
+  </si>
+  <si>
+    <t>Patrick Njoroge</t>
+  </si>
+  <si>
+    <t>Julius Yego</t>
+  </si>
+  <si>
+    <t>Charles Kokoyo</t>
+  </si>
+  <si>
+    <t>Samuel Gathimba</t>
+  </si>
+  <si>
+    <t>David Kimutai</t>
+  </si>
+  <si>
+    <t>William Sawe</t>
+  </si>
+  <si>
+    <t>KenyaSimon KimaruAnderson Mureta MutegiStephen BarasaKipkemoi Soy</t>
+  </si>
+  <si>
+    <t>KenyaStephen BarasaCarvin NkanataTony Kipruto ChirchirWalter Michuki Moenga</t>
+  </si>
+  <si>
+    <t>KenyaDavid KiturSamson KiturSimon KipkemboiSimon Kemboi</t>
+  </si>
+  <si>
+    <t>KenyaJoseph Mwengi MutuaWilliam YiampoyIsmael KombichWilfred Bungei</t>
+  </si>
+  <si>
+    <t>Elkanah Angwenyi 2:50.8 (1200m)Thomas Musembi 45.8 (400m)Alfred Kirwa Yego 1:46.2 (800m)Alex Kipchirchir 3:52.8 (1600 m)</t>
+  </si>
+  <si>
+    <t>KenyaCollins CheboiSilas KiplagatJames Kiplagat MagutAsbel Kiprop</t>
+  </si>
+  <si>
+    <t>KenyaJosephat Muchiri Ndambiri 13:24/ 5 kmMartin Irungu Mathathi 27:12/ 10 kmDaniel Muchunu Mwangi 13:59/ 5 kmMekubo Mogusu 27:56/ 10 kmOnesmus Nyerre 14:36/ 5 kmJohn Kariuki 19:59/ 7.195 km</t>
+  </si>
+  <si>
+    <t>Eunice Kadogo</t>
+  </si>
+  <si>
+    <t>Ruth Waithera</t>
+  </si>
+  <si>
+    <t>Joyce Zakari</t>
+  </si>
+  <si>
+    <t>Pamela Jelimo</t>
+  </si>
+  <si>
+    <t>Faith Macharia</t>
+  </si>
+  <si>
+    <t>Faith Kipyegon</t>
+  </si>
+  <si>
+    <t>Vivian Cheruiyot</t>
+  </si>
+  <si>
+    <t>Hellen Obiri</t>
+  </si>
+  <si>
+    <t>Priscah Cherono</t>
+  </si>
+  <si>
+    <t>Viola Kibiwot</t>
+  </si>
+  <si>
+    <t>Joyciline Jepkosgei</t>
+  </si>
+  <si>
+    <t>Mary Jepkosgei Keitany</t>
+  </si>
+  <si>
+    <t>Tegla Loroupe</t>
+  </si>
+  <si>
+    <t>Priscilla Tabuda</t>
+  </si>
+  <si>
+    <t>Francisca Koki</t>
+  </si>
+  <si>
+    <t>Virginia Nyambura Nganga</t>
+  </si>
+  <si>
+    <t>Hyvin Jepkemoi</t>
+  </si>
+  <si>
+    <t>Lenah Serem</t>
+  </si>
+  <si>
+    <t>Caroline Cherotich</t>
+  </si>
+  <si>
+    <t>Ruth Onsarigo</t>
+  </si>
+  <si>
+    <t>Caroline Kola</t>
+  </si>
+  <si>
+    <t>Elizabeth Olaba</t>
+  </si>
+  <si>
+    <t>Joyce Kiume</t>
+  </si>
+  <si>
+    <t>Linda Oseso</t>
+  </si>
+  <si>
+    <t>Cecilia Kiplangat</t>
+  </si>
+  <si>
+    <t>Grace Wanjiru</t>
+  </si>
+  <si>
+    <t>KenyaEunice KadogoMilicent NdoroFrasha WangariMaureen Nyatichi</t>
+  </si>
+  <si>
+    <t>KenyaMaximila ImaliMary ChepkoechPeris Wairimu ChegeDamaris Akoth</t>
+  </si>
+  <si>
+    <t>KenyaGeraldine ShitandayiFlorence WanjiruEsther KavayaFrancisca Chepkurui</t>
+  </si>
+  <si>
+    <t>KenyaJaneth JepkosgeiAgatha Jeruto KimaswaiSylvia Chematui ChesebeEunice Jepkoech Sum</t>
+  </si>
+  <si>
+    <t>KenyaSelah Jepleting Busienei (1200 m)Joy Nakhumicha Sakari (400 m)Sylivia Chematui Chesebe (800 m)Virginia Nyambura Nganga (1600 m)</t>
+  </si>
+  <si>
+    <t>KenyaMercy CheronoFaith KipyegonIrene JelagatHellen Onsando Obiri</t>
+  </si>
+  <si>
+    <t>KenyaPhiles OngoriEverline KimweiSally Chepyego KaptichCatherine NderebaJane WanjikuLucy Wangui Kabuu</t>
+  </si>
+  <si>
+    <t>Paulvince Obuon</t>
+  </si>
+  <si>
+    <t>Charles Gitonga</t>
+  </si>
+  <si>
+    <t>Emmanuel Korir</t>
+  </si>
+  <si>
+    <t>Joseph Mwengi Mutua</t>
+  </si>
+  <si>
+    <t>Kennedy Kimwetich</t>
+  </si>
+  <si>
+    <t>Laban Rotich</t>
+  </si>
+  <si>
+    <t>Edward Cheserek</t>
+  </si>
+  <si>
+    <t>Paul Kipsiele Koech</t>
+  </si>
+  <si>
+    <t>Mark Bett</t>
+  </si>
+  <si>
+    <t>John Kiplangat Ngeno</t>
+  </si>
+  <si>
+    <t>Mathieu Sawe</t>
+  </si>
+  <si>
+    <t>Benjamin Koech</t>
+  </si>
+  <si>
+    <t>Ivy Atieno</t>
+  </si>
+  <si>
+    <t>Joyce Odhiambo</t>
+  </si>
+  <si>
+    <t>Irene Jelagat</t>
+  </si>
+  <si>
+    <t>Esther Otieno</t>
+  </si>
+  <si>
+    <t>11 July 2015</t>
+  </si>
+  <si>
+    <t>18 April 2015</t>
+  </si>
+  <si>
+    <t>3 August 1992</t>
+  </si>
+  <si>
+    <t>10 September 2016</t>
+  </si>
+  <si>
+    <t>5 June 2016</t>
+  </si>
+  <si>
+    <t>9 August 2012</t>
+  </si>
+  <si>
+    <t>5 September 1999</t>
+  </si>
+  <si>
+    <t>24 August 2001</t>
+  </si>
+  <si>
+    <t>7 July 1999</t>
+  </si>
+  <si>
+    <t>1 August 1998</t>
+  </si>
+  <si>
+    <t>1 September 1996</t>
+  </si>
+  <si>
+    <t>17 July 1997</t>
+  </si>
+  <si>
+    <t>22 August 1997</t>
+  </si>
+  <si>
+    <t>26 March 2000</t>
+  </si>
+  <si>
+    <t>30 March 2013</t>
+  </si>
+  <si>
+    <t>26 September 2010</t>
+  </si>
+  <si>
+    <t>21 November 2010</t>
+  </si>
+  <si>
+    <t>18 September 2011</t>
+  </si>
+  <si>
+    <t>8 October 2006</t>
+  </si>
+  <si>
+    <t>17 March 2007</t>
+  </si>
+  <si>
+    <t>1 June 2009</t>
+  </si>
+  <si>
+    <t>3 June 2011</t>
+  </si>
+  <si>
+    <t>6 May 2012</t>
+  </si>
+  <si>
+    <t>24 April 2016</t>
+  </si>
+  <si>
+    <t>28 September 2014</t>
+  </si>
+  <si>
+    <t>6 May 2017</t>
+  </si>
+  <si>
+    <t>26 January 1974</t>
+  </si>
+  <si>
+    <t>18 August 2016</t>
+  </si>
+  <si>
+    <t>22 July 2011</t>
+  </si>
+  <si>
+    <t>31 July 2015</t>
+  </si>
+  <si>
+    <t>22 July 2000</t>
+  </si>
+  <si>
+    <t>14 September 1995</t>
+  </si>
+  <si>
+    <t>19 June 1996</t>
+  </si>
+  <si>
+    <t>6 October 1989</t>
+  </si>
+  <si>
+    <t>23 July 1994</t>
+  </si>
+  <si>
+    <t>2 July 1993</t>
+  </si>
+  <si>
+    <t>26 August 2015</t>
+  </si>
+  <si>
+    <t>4–5 October 1982</t>
+  </si>
+  <si>
+    <t>26 June 2016</t>
+  </si>
+  <si>
+    <t>16 July 2011</t>
+  </si>
+  <si>
+    <t>30 September 1988</t>
+  </si>
+  <si>
+    <t>30 July 2010</t>
+  </si>
+  <si>
+    <t>24 May 2014</t>
+  </si>
+  <si>
+    <t>7 August 1992</t>
+  </si>
+  <si>
+    <t>25 August 2006</t>
+  </si>
+  <si>
+    <t>29 April 2006</t>
+  </si>
+  <si>
+    <t>25 May 2014</t>
+  </si>
+  <si>
+    <t>23 November 2005</t>
+  </si>
+  <si>
+    <t>14 September 2015</t>
+  </si>
+  <si>
+    <t>8 August 1984</t>
+  </si>
+  <si>
+    <t>10 July 2015</t>
+  </si>
+  <si>
+    <t>24 August 2015</t>
+  </si>
+  <si>
+    <t>5 July 2012</t>
+  </si>
+  <si>
+    <t>29 August 2008</t>
+  </si>
+  <si>
+    <t>9 July 2001</t>
+  </si>
+  <si>
+    <t>28 May 2016</t>
+  </si>
+  <si>
+    <t>11 September 2015</t>
+  </si>
+  <si>
+    <t>7 June 2009</t>
+  </si>
+  <si>
+    <t>9 May 2014</t>
+  </si>
+  <si>
+    <t>14 September 2007</t>
+  </si>
+  <si>
+    <t>29 July 2011</t>
+  </si>
+  <si>
+    <t>13 October 2013</t>
+  </si>
+  <si>
+    <t>12 August 2016</t>
+  </si>
+  <si>
+    <t>1 April 2017</t>
+  </si>
+  <si>
+    <t>18 February 2011</t>
+  </si>
+  <si>
+    <t>8 August 1998</t>
+  </si>
+  <si>
+    <t>3 September 2000</t>
+  </si>
+  <si>
+    <t>21 September 2002</t>
+  </si>
+  <si>
+    <t>23 April 2017</t>
+  </si>
+  <si>
+    <t>6 June 2003</t>
+  </si>
+  <si>
+    <t>6 September 2015</t>
+  </si>
+  <si>
+    <t>7 June 1991</t>
   </si>
   <si>
     <t>11 May 2012</t>
   </si>
   <si>
-    <t>8 May 2005</t>
-  </si>
-  <si>
-    <t>13 August 2014</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>2 April 2008</t>
-  </si>
-  <si>
-    <t>February 1976</t>
-  </si>
-  <si>
-    <t>28 August 1970</t>
-  </si>
-  <si>
-    <t>4 June 1994</t>
-  </si>
-  <si>
-    <t>11–12 August 1987</t>
-  </si>
-  <si>
-    <t>4 May 2006</t>
-  </si>
-  <si>
-    <t>14 May 2006</t>
-  </si>
-  <si>
-    <t>2 May 2008</t>
-  </si>
-  <si>
-    <t>2 September 1988</t>
-  </si>
-  <si>
-    <t>27 April 2013</t>
-  </si>
-  <si>
-    <t>25 May 2014</t>
-  </si>
-  <si>
-    <t>3 June 2011</t>
-  </si>
-  <si>
-    <t>5 May 2005</t>
-  </si>
-  <si>
-    <t>20 April 2006</t>
-  </si>
-  <si>
-    <t>8 March 2015</t>
-  </si>
-  <si>
-    <t>13 June 2014</t>
-  </si>
-  <si>
-    <t>9 June 2012</t>
-  </si>
-  <si>
-    <t>17 July 2015</t>
-  </si>
-  <si>
-    <t>6 September 2016</t>
-  </si>
-  <si>
-    <t>17 June 2014</t>
-  </si>
-  <si>
-    <t>14 June 2015</t>
-  </si>
-  <si>
-    <t>14 September 2007</t>
-  </si>
-  <si>
-    <t>6 June 2008</t>
-  </si>
-  <si>
-    <t>9 April 2006</t>
-  </si>
-  <si>
-    <t>12 August 2016</t>
-  </si>
-  <si>
-    <t>1 September 2013</t>
-  </si>
-  <si>
-    <t>15 November 2009</t>
-  </si>
-  <si>
-    <t>12 June 2008</t>
-  </si>
-  <si>
-    <t>2 April 2016</t>
-  </si>
-  <si>
-    <t>23 April 2017</t>
-  </si>
-  <si>
-    <t>16 September 1995</t>
-  </si>
-  <si>
-    <t>8 August 1987</t>
-  </si>
-  <si>
-    <t>7 June 2012</t>
-  </si>
-  <si>
-    <t>14 September 2015</t>
-  </si>
-  <si>
-    <t>23 June 1993</t>
-  </si>
-  <si>
-    <t>26 May 2013</t>
-  </si>
-  <si>
-    <t>26 June 2016</t>
-  </si>
-  <si>
-    <t>2 May 2009</t>
-  </si>
-  <si>
-    <t>6 May 2007</t>
-  </si>
-  <si>
-    <t>28 April 2006</t>
-  </si>
-  <si>
-    <t>8–9 August 1987</t>
-  </si>
-  <si>
-    <t>15 May 2011</t>
-  </si>
-  <si>
-    <t>19 July 2016</t>
-  </si>
-  <si>
-    <t>7 May 2016</t>
-  </si>
-  <si>
-    <t>30 July 2010</t>
-  </si>
-  <si>
-    <t>12 January 1991</t>
-  </si>
-  <si>
-    <t>3 March 1989</t>
-  </si>
-  <si>
-    <t>5 March 1989</t>
-  </si>
-  <si>
-    <t>2 February 2014</t>
-  </si>
-  <si>
-    <t>15 February 2014</t>
+    <t>23 December 1989</t>
+  </si>
+  <si>
+    <t>20 June 2001</t>
+  </si>
+  <si>
+    <t>27 June 1987</t>
+  </si>
+  <si>
+    <t>21 May 1999</t>
+  </si>
+  <si>
+    <t>14 June 2012</t>
+  </si>
+  <si>
+    <t>3 March 2007</t>
+  </si>
+  <si>
+    <t>22–23 August 1994</t>
+  </si>
+  <si>
+    <t>5 March 2016</t>
+  </si>
+  <si>
+    <t>15 July 2011</t>
+  </si>
+  <si>
+    <t>15 September 2015</t>
+  </si>
+  <si>
+    <t>22 April 2017</t>
+  </si>
+  <si>
+    <t>12 August 1987</t>
+  </si>
+  <si>
+    <t>2 May 2015</t>
+  </si>
+  <si>
+    <t>23 November 2006</t>
+  </si>
+  <si>
+    <t>28 January 2005</t>
+  </si>
+  <si>
+    <t>6 March 2004</t>
+  </si>
+  <si>
+    <t>7 December 2013</t>
+  </si>
+  <si>
+    <t>19 February 1995</t>
+  </si>
+  <si>
+    <t>20 January 2017</t>
+  </si>
+  <si>
+    <t>31 January 2004</t>
+  </si>
+  <si>
+    <t>6 February 2000</t>
   </si>
   <si>
     <t>1 February 1998</t>
   </si>
   <si>
-    <t>17 February 2016</t>
-  </si>
-  <si>
-    <t>17 February 2007</t>
-  </si>
-  <si>
-    <t>25 January 1998</t>
+    <t>26 February 2017</t>
   </si>
   <si>
     <t>16 February 2008</t>
   </si>
   <si>
-    <t>20 February 2004</t>
+    <t>6 February 1998</t>
+  </si>
+  <si>
+    <t>19 February 1998</t>
+  </si>
+  <si>
+    <t>10 February 2002</t>
+  </si>
+  <si>
+    <t>31 January 1976</t>
   </si>
   <si>
     <t>13 February 2011</t>
   </si>
   <si>
-    <t>28 January 2012</t>
-  </si>
-  <si>
-    <t>24 February 2017</t>
-  </si>
-  <si>
-    <t>14 February 1999</t>
-  </si>
-  <si>
-    <t>1 February 2014</t>
-  </si>
-  <si>
-    <t>7 February 2017</t>
-  </si>
-  <si>
-    <t>6 February 2014</t>
-  </si>
-  <si>
-    <t>19 February 2015</t>
+    <t>27 January 2016</t>
+  </si>
+  <si>
+    <t>2 February 1993</t>
+  </si>
+  <si>
+    <t>20 February 1994</t>
+  </si>
+  <si>
+    <t>3 March 1990</t>
+  </si>
+  <si>
+    <t>15 January 2012</t>
+  </si>
+  <si>
+    <t>6 March 1987</t>
+  </si>
+  <si>
+    <t>10 March 1984</t>
+  </si>
+  <si>
+    <t>3 March 1984</t>
+  </si>
+  <si>
+    <t>11 March 2012</t>
+  </si>
+  <si>
+    <t>22 February 2011</t>
+  </si>
+  <si>
+    <t>18 February 2017</t>
+  </si>
+  <si>
+    <t>20 February 2010</t>
+  </si>
+  <si>
+    <t>13 February 1999</t>
+  </si>
+  <si>
+    <t>22 February 1980</t>
+  </si>
+  <si>
+    <t>29 January 2011</t>
+  </si>
+  <si>
+    <t>25 February 2011</t>
+  </si>
+  <si>
+    <t>Kenyan Championships</t>
+  </si>
+  <si>
+    <t>NTC Pure Athletics Sprint Elite Meet</t>
+  </si>
+  <si>
+    <t>Olympic Games</t>
+  </si>
+  <si>
+    <t>Great North CityGames</t>
+  </si>
+  <si>
+    <t>British Grand Prix</t>
+  </si>
+  <si>
+    <t>IAAF Grand Prix</t>
+  </si>
+  <si>
+    <t>Memorial Van Damme</t>
+  </si>
+  <si>
+    <t>Golden Gala</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>15th Carlsbad 5000</t>
+  </si>
+  <si>
+    <t>Allstate Sugar Bowl Crescent City Classic</t>
+  </si>
+  <si>
+    <t>Singelloop</t>
+  </si>
+  <si>
+    <t>Zevenheuvelenloop</t>
+  </si>
+  <si>
+    <t>27th Dam tot Dam</t>
+  </si>
+  <si>
+    <t>World Road Running Championships</t>
+  </si>
+  <si>
+    <t>City-Pier-City Loop</t>
+  </si>
+  <si>
+    <t>FBK Games</t>
+  </si>
+  <si>
+    <t>Prefontaine Classic</t>
+  </si>
+  <si>
+    <t>BIG 25</t>
+  </si>
+  <si>
+    <t>London Marathon</t>
+  </si>
+  <si>
+    <t>Berlin Marathon</t>
+  </si>
+  <si>
+    <t>Breaking2</t>
+  </si>
+  <si>
+    <t>Commonwealth Games</t>
+  </si>
+  <si>
+    <t>Herculis</t>
+  </si>
+  <si>
+    <t>World Championships</t>
   </si>
   <si>
     <t>African Championships</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Olympic Games</t>
-  </si>
-  <si>
-    <t>Memorial Van Damme</t>
-  </si>
-  <si>
-    <t>Herculis</t>
-  </si>
-  <si>
-    <t>Prefontaine Classic</t>
-  </si>
-  <si>
-    <t>20th Carlsbad 5000</t>
+    <t>IAAF World Relays</t>
+  </si>
+  <si>
+    <t>Penn Relays</t>
+  </si>
+  <si>
+    <t>International Chiba Ekiden</t>
+  </si>
+  <si>
+    <t>All-Africa Games</t>
+  </si>
+  <si>
+    <t>Meeting de la Province de Liège</t>
+  </si>
+  <si>
+    <t>Weltklasse Zürich</t>
+  </si>
+  <si>
+    <t>Qatar Athletic Super Grand Prix</t>
+  </si>
+  <si>
+    <t>DN Galan</t>
+  </si>
+  <si>
+    <t>4 Mile of Groningen</t>
+  </si>
+  <si>
+    <t>Prague Half Marathon</t>
   </si>
   <si>
     <t>Ras Al Khaimah Half Marathon</t>
   </si>
   <si>
-    <t>Golden Spike Ostrava</t>
-  </si>
-  <si>
-    <t>Prague Half Marathon</t>
-  </si>
-  <si>
-    <t>Berlin Marathon</t>
-  </si>
-  <si>
-    <t>20 van Alphen</t>
-  </si>
-  <si>
-    <t>All-Africa Games</t>
-  </si>
-  <si>
-    <t>Qatar Athletic Super Grand Prix</t>
-  </si>
-  <si>
-    <t>Penn Relays</t>
-  </si>
-  <si>
-    <t>IAAF World Relays</t>
-  </si>
-  <si>
-    <t>African Junior Championships</t>
-  </si>
-  <si>
-    <t>Ethiopian Championships</t>
-  </si>
-  <si>
-    <t>Adidas Grand Prix</t>
-  </si>
-  <si>
-    <t>Palio Città della Quercia</t>
-  </si>
-  <si>
-    <t>Meeting International Mohammed VI d'Athlétisme de Rabat</t>
-  </si>
-  <si>
-    <t>Bislett Games</t>
-  </si>
-  <si>
-    <t>15th Carlsbad 5000</t>
-  </si>
-  <si>
-    <t>Tilburg Ten Miles</t>
-  </si>
-  <si>
-    <t>Zevenheuvelenloop</t>
-  </si>
-  <si>
-    <t>London Marathon</t>
-  </si>
-  <si>
-    <t>World U20 Championships</t>
-  </si>
-  <si>
-    <t>World Race Walking Team Championships</t>
-  </si>
-  <si>
-    <t>World Championships</t>
-  </si>
-  <si>
-    <t>Russian Winter Meeting</t>
+    <t>ISTAF</t>
+  </si>
+  <si>
+    <t>Kenya Defence Forces Athletics Championships</t>
+  </si>
+  <si>
+    <t>Athletics Kenya Meeting</t>
+  </si>
+  <si>
+    <t>AK Thika Meet</t>
+  </si>
+  <si>
+    <t>2014 IAAF World Relays</t>
+  </si>
+  <si>
+    <t>Kent State Golden Flash Gala</t>
+  </si>
+  <si>
+    <t>Meeting Pas de Calais</t>
+  </si>
+  <si>
+    <t>Cherry &amp; Silver Collegiate Invitational</t>
+  </si>
+  <si>
+    <t>Sparkassen Cup</t>
+  </si>
+  <si>
+    <t>Boston University Last Chance Meet</t>
+  </si>
+  <si>
+    <t>AVIVA Indoor Grand Prix</t>
+  </si>
+  <si>
+    <t>GE Galan</t>
+  </si>
+  <si>
+    <t>Indoor Flanders Meeting</t>
+  </si>
+  <si>
+    <t>Lumberjack Invitational</t>
+  </si>
+  <si>
+    <t>Birmingham Indoor Grand Prix</t>
   </si>
   <si>
     <t>Aviva Indoor Grand Prix</t>
   </si>
   <si>
-    <t>Sparkassen Cup</t>
-  </si>
-  <si>
-    <t>AIT Grand Prix</t>
-  </si>
-  <si>
-    <t>BW-Bank Meeting</t>
-  </si>
-  <si>
-    <t>Indoor Flanders Meeting</t>
-  </si>
-  <si>
-    <t>Meeting International</t>
-  </si>
-  <si>
-    <t>Meeting Ville de Madrid</t>
-  </si>
-  <si>
-    <t>Weltklasse in Karlsruhe</t>
-  </si>
-  <si>
-    <t>Globen Galan</t>
-  </si>
-  <si>
-    <t>Míting Internacional de Catalunya</t>
-  </si>
-  <si>
-    <t>XL Galan</t>
-  </si>
-  <si>
-    <t>Addis Ababa, Ethiopia</t>
-  </si>
-  <si>
-    <t>Kampala, Uganda</t>
-  </si>
-  <si>
-    <t>Mexico City, Mexico</t>
+    <t>UW Invitational</t>
+  </si>
+  <si>
+    <t>MPSF Indoor Track &amp; Field Championships</t>
+  </si>
+  <si>
+    <t>Kasarani, Kenya</t>
+  </si>
+  <si>
+    <t>Clermont, United States</t>
+  </si>
+  <si>
+    <t>Barcelona, Spain</t>
+  </si>
+  <si>
+    <t>Newcastle, United Kingdom</t>
+  </si>
+  <si>
+    <t>Birmingham, Great Britain</t>
+  </si>
+  <si>
+    <t>London, United Kingdom</t>
+  </si>
+  <si>
+    <t>Rieti, Italy</t>
   </si>
   <si>
     <t>Brussels, Belgium</t>
   </si>
   <si>
+    <t>Rome, Italy</t>
+  </si>
+  <si>
+    <t>Hechtel-Eksel, Belgium</t>
+  </si>
+  <si>
+    <t>Carlsbad, United States</t>
+  </si>
+  <si>
+    <t>New Orleans, United States</t>
+  </si>
+  <si>
+    <t>Utrecht, Netherlands</t>
+  </si>
+  <si>
+    <t>Nijmegen, Netherlands</t>
+  </si>
+  <si>
+    <t>Zaandam, Netherlands</t>
+  </si>
+  <si>
+    <t>Debrecen, Hungary</t>
+  </si>
+  <si>
+    <t>The Hague, Netherlands</t>
+  </si>
+  <si>
+    <t>Hengelo, Netherlands</t>
+  </si>
+  <si>
+    <t>Eugene, United States</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>London, Great Britain</t>
+  </si>
+  <si>
+    <t>Monza, Italy</t>
+  </si>
+  <si>
+    <t>Christchurch, New Zealand</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro, Brazil</t>
+  </si>
+  <si>
     <t>Fontvieille, Monaco</t>
   </si>
   <si>
-    <t>Eugene, United States</t>
-  </si>
-  <si>
-    <t>Hengelo, Netherlands</t>
-  </si>
-  <si>
-    <t>Carlsbad, United States</t>
+    <t>Nairobi, Kenya</t>
+  </si>
+  <si>
+    <t>Johannesburg, South Africa</t>
+  </si>
+  <si>
+    <t>Beijing, China</t>
+  </si>
+  <si>
+    <t>Brisbane, Australia</t>
+  </si>
+  <si>
+    <t>Durban, South Africa</t>
+  </si>
+  <si>
+    <t>Seoul, South Korea</t>
+  </si>
+  <si>
+    <t>Nassau, Bahamas</t>
+  </si>
+  <si>
+    <t>Philadelphia, United States</t>
+  </si>
+  <si>
+    <t>Chiba, Japan</t>
+  </si>
+  <si>
+    <t>Brazzaville, Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Los Angeles, United States</t>
+  </si>
+  <si>
+    <t>Liège, Belgium</t>
+  </si>
+  <si>
+    <t>Zürich, Switzerland</t>
+  </si>
+  <si>
+    <t>Nice, France</t>
   </si>
   <si>
     <t>Doha, Qatar</t>
   </si>
   <si>
+    <t>Stockholm, Sweden</t>
+  </si>
+  <si>
+    <t>Groningen, Netherlands</t>
+  </si>
+  <si>
+    <t>Prague, Czech Republic</t>
+  </si>
+  <si>
     <t>Ras al-Khaimah, United Arab Emirates</t>
   </si>
   <si>
-    <t>Tilburg, Netherlands</t>
-  </si>
-  <si>
-    <t>Ostrava, Czech Republic</t>
-  </si>
-  <si>
-    <t>Phoenix, United States</t>
-  </si>
-  <si>
-    <t>Prague, Czech Republic</t>
-  </si>
-  <si>
-    <t>Berlin, Germany</t>
-  </si>
-  <si>
-    <t>Alphen aan den Rijn, Netherlands</t>
-  </si>
-  <si>
-    <t>Brazzaville, Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Annaba, Algeria</t>
-  </si>
-  <si>
-    <t>Marrakech, Morocco</t>
-  </si>
-  <si>
-    <t>Nairobi, Kenya</t>
-  </si>
-  <si>
-    <t>La Coruña, Spain</t>
-  </si>
-  <si>
-    <t>Philadelphia, United States</t>
-  </si>
-  <si>
-    <t>Nassau, Bahamas</t>
-  </si>
-  <si>
-    <t>Dar es Salaam, Tanzania</t>
-  </si>
-  <si>
-    <t>New York City, United States</t>
-  </si>
-  <si>
-    <t>Rovereto, Italy</t>
-  </si>
-  <si>
-    <t>Rabat, Morocco</t>
-  </si>
-  <si>
-    <t>Oslo, Norway</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro, Brazil</t>
-  </si>
-  <si>
-    <t>Nijmegen, Netherlands</t>
-  </si>
-  <si>
-    <t>London, United Kingdom</t>
-  </si>
-  <si>
-    <t>Harare, Zimbabwe</t>
-  </si>
-  <si>
-    <t>Durban, South Africa</t>
-  </si>
-  <si>
-    <t>Gaborone, Botswana</t>
-  </si>
-  <si>
-    <t>Bydgoszcz, Poland</t>
-  </si>
-  <si>
-    <t>Rome, Italia</t>
-  </si>
-  <si>
-    <t>Gothenburg, Sweden</t>
+    <t>Borgholzhausen, Germany</t>
+  </si>
+  <si>
+    <t>Mengerskirchen, Germany</t>
+  </si>
+  <si>
+    <t>Warstein, Germany</t>
+  </si>
+  <si>
+    <t>Nakuru, Kenya</t>
+  </si>
+  <si>
+    <t>Kisumu, Kenya</t>
+  </si>
+  <si>
+    <t>Victoria, Canada</t>
+  </si>
+  <si>
+    <t>Thika, Kenya</t>
+  </si>
+  <si>
+    <t>State College, United States</t>
+  </si>
+  <si>
+    <t>Allston, United States</t>
+  </si>
+  <si>
+    <t>Kent, United States</t>
+  </si>
+  <si>
+    <t>Liévin, France</t>
+  </si>
+  <si>
+    <t>Albuquerque, United States</t>
+  </si>
+  <si>
+    <t>Stuttgart, Germany</t>
+  </si>
+  <si>
+    <t>Boston, United States</t>
+  </si>
+  <si>
+    <t>Birmingham, United Kingdom</t>
   </si>
   <si>
     <t>Budapest, Hungary</t>
   </si>
   <si>
-    <t>Moscow, Russia</t>
-  </si>
-  <si>
-    <t>Birmingham, United Kingdom</t>
-  </si>
-  <si>
-    <t>Stuttgart, Germany</t>
-  </si>
-  <si>
-    <t>Athlone, Ireland</t>
-  </si>
-  <si>
-    <t>Karlsruhe, Germany</t>
-  </si>
-  <si>
     <t>Ghent, Belgium</t>
   </si>
   <si>
-    <t>Bordeaux, France</t>
-  </si>
-  <si>
-    <t>Madrid, Spain</t>
-  </si>
-  <si>
-    <t>Stockholm, Sweden</t>
-  </si>
-  <si>
-    <t>Sabadell, Spain</t>
+    <t>Portland, United States</t>
+  </si>
+  <si>
+    <t>Köln, Germany</t>
+  </si>
+  <si>
+    <t>Flagstaff, United States</t>
+  </si>
+  <si>
+    <t>Lawrence, United States</t>
+  </si>
+  <si>
+    <t>Leverkusen, Germany</t>
+  </si>
+  <si>
+    <t>Indianapolis, United States</t>
+  </si>
+  <si>
+    <t>Syracuse, United States</t>
+  </si>
+  <si>
+    <t>Istanbul, Turkey</t>
+  </si>
+  <si>
+    <t>Dortmund, Germany</t>
+  </si>
+  <si>
+    <t>Pocatello, United States</t>
+  </si>
+  <si>
+    <t>Seattle, United States</t>
   </si>
   <si>
     <t>[1]</t>
@@ -1300,9 +1641,6 @@
     <t>[3]</t>
   </si>
   <si>
-    <t>[4]</t>
-  </si>
-  <si>
     <t>[5]</t>
   </si>
   <si>
@@ -1333,19 +1671,13 @@
     <t>[14]</t>
   </si>
   <si>
-    <t>[15]</t>
-  </si>
-  <si>
-    <t>[16]</t>
-  </si>
-  <si>
-    <t>[17]</t>
-  </si>
-  <si>
-    <t>[18]</t>
-  </si>
-  <si>
-    <t>[19]</t>
+    <t>[15][16]</t>
+  </si>
+  <si>
+    <t>[17][18]</t>
+  </si>
+  <si>
+    <t>[15][19]</t>
   </si>
   <si>
     <t>[20]</t>
@@ -1393,10 +1725,7 @@
     <t>[34]</t>
   </si>
   <si>
-    <t>[35]</t>
-  </si>
-  <si>
-    <t>[36]</t>
+    <t>[35][36]</t>
   </si>
   <si>
     <t>[37]</t>
@@ -1405,7 +1734,10 @@
     <t>[38]</t>
   </si>
   <si>
-    <t>[39][40]</t>
+    <t>[39]</t>
+  </si>
+  <si>
+    <t>[40]</t>
   </si>
   <si>
     <t>[41]</t>
@@ -1468,6 +1800,48 @@
     <t>[60]</t>
   </si>
   <si>
+    <t>[61]</t>
+  </si>
+  <si>
+    <t>[62]</t>
+  </si>
+  <si>
+    <t>[63]</t>
+  </si>
+  <si>
+    <t>[64]</t>
+  </si>
+  <si>
+    <t>[65]</t>
+  </si>
+  <si>
+    <t>[66]</t>
+  </si>
+  <si>
+    <t>[67]</t>
+  </si>
+  <si>
+    <t>[68]</t>
+  </si>
+  <si>
+    <t>[69][70]</t>
+  </si>
+  <si>
+    <t>[71]</t>
+  </si>
+  <si>
+    <t>[72]</t>
+  </si>
+  <si>
+    <t>[73]</t>
+  </si>
+  <si>
+    <t>[74]</t>
+  </si>
+  <si>
+    <t>[75]</t>
+  </si>
+  <si>
     <t>outdoor</t>
   </si>
   <si>
@@ -1480,31 +1854,7 @@
     <t>f</t>
   </si>
   <si>
-    <t xml:space="preserve"> m</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> km (road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> miles (road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> m (track)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> m hurdles</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> m steeplechase</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> km walk (road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> m relay</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> m walk (track)</t>
+    <t>Kenyan</t>
   </si>
   <si>
     <t>main</t>
@@ -1601,3779 +1951,3779 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
+        <v>412</v>
       </c>
       <c r="F2" t="s">
-        <v>376</v>
+        <v>467</v>
       </c>
       <c r="G2" t="s">
-        <v>336</v>
+        <v>539</v>
       </c>
       <c r="H2" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I2" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J2" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K2" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="E3" t="s">
-        <v>336</v>
+        <v>413</v>
       </c>
       <c r="F3" t="s">
-        <v>376</v>
+        <v>468</v>
       </c>
       <c r="G3" t="s">
-        <v>336</v>
+        <v>540</v>
       </c>
       <c r="H3" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I3" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J3" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K3" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="E4" t="s">
-        <v>336</v>
+        <v>414</v>
       </c>
       <c r="F4" t="s">
-        <v>377</v>
+        <v>469</v>
       </c>
       <c r="G4" t="s">
-        <v>336</v>
+        <v>541</v>
       </c>
       <c r="H4" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I4" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J4" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K4" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="E5" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="F5" t="s">
-        <v>376</v>
+        <v>470</v>
       </c>
       <c r="G5" t="s">
-        <v>336</v>
+        <v>542</v>
       </c>
       <c r="H5" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I5" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J5" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K5" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="E6" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="F6" t="s">
-        <v>378</v>
+        <v>471</v>
       </c>
       <c r="G6" t="s">
-        <v>336</v>
+        <v>543</v>
       </c>
       <c r="H6" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I6" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J6" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K6" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="E7" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="F7" t="s">
-        <v>379</v>
+        <v>472</v>
       </c>
       <c r="G7" t="s">
-        <v>424</v>
+        <v>544</v>
       </c>
       <c r="H7" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I7" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J7" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K7" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="E8" t="s">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="F8" t="s">
-        <v>379</v>
+        <v>473</v>
       </c>
       <c r="G8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H8" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I8" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J8" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K8" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="E9" t="s">
-        <v>339</v>
+        <v>418</v>
       </c>
       <c r="F9" t="s">
-        <v>380</v>
+        <v>474</v>
       </c>
       <c r="G9" t="s">
-        <v>426</v>
+        <v>545</v>
       </c>
       <c r="H9" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I9" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J9" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K9" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="E10" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="F10" t="s">
-        <v>381</v>
+        <v>475</v>
       </c>
       <c r="G10" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="H10" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I10" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>613</v>
       </c>
       <c r="K10" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="E11" t="s">
-        <v>338</v>
+        <v>420</v>
       </c>
       <c r="F11" t="s">
-        <v>379</v>
+        <v>476</v>
       </c>
       <c r="G11" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H11" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I11" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J11" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K11" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="E12" t="s">
-        <v>336</v>
+        <v>417</v>
       </c>
       <c r="F12" t="s">
-        <v>382</v>
+        <v>473</v>
       </c>
       <c r="G12" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H12" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I12" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J12" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K12" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="E13" t="s">
-        <v>341</v>
+        <v>420</v>
       </c>
       <c r="F13" t="s">
-        <v>383</v>
+        <v>476</v>
       </c>
       <c r="G13" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H13" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I13" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J13" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="K13" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="E14" t="s">
-        <v>338</v>
+        <v>418</v>
       </c>
       <c r="F14" t="s">
-        <v>379</v>
+        <v>474</v>
       </c>
       <c r="G14" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H14" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I14" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J14" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K14" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D15" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="E15" t="s">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="F15" t="s">
-        <v>384</v>
+        <v>477</v>
       </c>
       <c r="G15" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H15" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I15" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J15" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="K15" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="D16" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="E16" t="s">
-        <v>342</v>
+        <v>422</v>
       </c>
       <c r="F16" t="s">
-        <v>385</v>
+        <v>478</v>
       </c>
       <c r="G16" t="s">
-        <v>336</v>
+        <v>546</v>
       </c>
       <c r="H16" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I16" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J16" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="K16" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="D17" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="E17" t="s">
-        <v>336</v>
+        <v>418</v>
       </c>
       <c r="F17" t="s">
-        <v>386</v>
+        <v>474</v>
       </c>
       <c r="G17" t="s">
-        <v>336</v>
+        <v>547</v>
       </c>
       <c r="H17" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I17" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J17" t="s">
-        <v>489</v>
+        <v>613</v>
       </c>
       <c r="K17" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="D18" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="E18" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="F18" t="s">
-        <v>387</v>
+        <v>479</v>
       </c>
       <c r="G18" t="s">
-        <v>428</v>
+        <v>548</v>
       </c>
       <c r="H18" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I18" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J18" t="s">
-        <v>490</v>
+        <v>613</v>
       </c>
       <c r="K18" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="D19" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="E19" t="s">
-        <v>336</v>
+        <v>424</v>
       </c>
       <c r="F19" t="s">
-        <v>388</v>
+        <v>480</v>
       </c>
       <c r="G19" t="s">
-        <v>336</v>
+        <v>549</v>
       </c>
       <c r="H19" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I19" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J19" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="K19" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="E20" t="s">
-        <v>344</v>
+        <v>425</v>
       </c>
       <c r="F20" t="s">
-        <v>389</v>
+        <v>481</v>
       </c>
       <c r="G20" t="s">
-        <v>429</v>
+        <v>550</v>
       </c>
       <c r="H20" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I20" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J20" t="s">
-        <v>27</v>
+        <v>613</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="D21" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="E21" t="s">
-        <v>343</v>
+        <v>426</v>
       </c>
       <c r="F21" t="s">
-        <v>387</v>
+        <v>482</v>
       </c>
       <c r="G21" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="H21" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I21" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J21" t="s">
-        <v>28</v>
+        <v>613</v>
       </c>
       <c r="K21" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="D22" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="E22" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="F22" t="s">
-        <v>390</v>
+        <v>483</v>
       </c>
       <c r="G22" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="H22" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I22" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J22" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="K22" t="s">
-        <v>496</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="D23" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="E23" t="s">
-        <v>346</v>
+        <v>428</v>
       </c>
       <c r="F23" t="s">
-        <v>391</v>
+        <v>484</v>
       </c>
       <c r="G23" t="s">
-        <v>336</v>
+        <v>551</v>
       </c>
       <c r="H23" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I23" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J23" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="K23" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="D24" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="E24" t="s">
-        <v>345</v>
+        <v>429</v>
       </c>
       <c r="F24" t="s">
-        <v>390</v>
+        <v>485</v>
       </c>
       <c r="G24" t="s">
-        <v>432</v>
+        <v>552</v>
       </c>
       <c r="H24" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I24" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J24" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="K24" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="D25" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="E25" t="s">
-        <v>345</v>
+        <v>430</v>
       </c>
       <c r="F25" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="G25" t="s">
-        <v>433</v>
+        <v>553</v>
       </c>
       <c r="H25" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I25" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J25" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="K25" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="D26" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="E26" t="s">
-        <v>345</v>
+        <v>429</v>
       </c>
       <c r="F26" t="s">
-        <v>390</v>
+        <v>485</v>
       </c>
       <c r="G26" t="s">
-        <v>434</v>
+        <v>554</v>
       </c>
       <c r="H26" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I26" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J26" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="K26" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="D27" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="E27" t="s">
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="F27" t="s">
-        <v>390</v>
+        <v>487</v>
       </c>
       <c r="G27" t="s">
-        <v>435</v>
+        <v>555</v>
       </c>
       <c r="H27" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I27" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J27" t="s">
-        <v>33</v>
+        <v>613</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="E28" t="s">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="F28" t="s">
-        <v>392</v>
+        <v>487</v>
       </c>
       <c r="G28" t="s">
-        <v>436</v>
+        <v>556</v>
       </c>
       <c r="H28" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I28" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J28" t="s">
-        <v>491</v>
+        <v>613</v>
       </c>
       <c r="K28" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="D29" t="s">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c r="E29" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="F29" t="s">
-        <v>376</v>
+        <v>486</v>
       </c>
       <c r="G29" t="s">
-        <v>336</v>
+        <v>557</v>
       </c>
       <c r="H29" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I29" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J29" t="s">
-        <v>491</v>
+        <v>613</v>
       </c>
       <c r="K29" t="s">
-        <v>497</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="D30" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="E30" t="s">
-        <v>335</v>
+        <v>433</v>
       </c>
       <c r="F30" t="s">
-        <v>393</v>
+        <v>488</v>
       </c>
       <c r="G30" t="s">
-        <v>336</v>
+        <v>558</v>
       </c>
       <c r="H30" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I30" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J30" t="s">
-        <v>491</v>
+        <v>613</v>
       </c>
       <c r="K30" t="s">
-        <v>497</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="D31" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="E31" t="s">
-        <v>348</v>
+        <v>434</v>
       </c>
       <c r="F31" t="s">
-        <v>384</v>
+        <v>489</v>
       </c>
       <c r="G31" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="H31" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I31" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J31" t="s">
-        <v>492</v>
+        <v>613</v>
       </c>
       <c r="K31" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="D32" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="E32" t="s">
-        <v>336</v>
+        <v>414</v>
       </c>
       <c r="F32" t="s">
-        <v>376</v>
+        <v>490</v>
       </c>
       <c r="G32" t="s">
-        <v>336</v>
+        <v>559</v>
       </c>
       <c r="H32" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I32" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J32" t="s">
-        <v>37</v>
+        <v>613</v>
       </c>
       <c r="K32" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="D33" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="E33" t="s">
-        <v>335</v>
+        <v>435</v>
       </c>
       <c r="F33" t="s">
-        <v>394</v>
+        <v>491</v>
       </c>
       <c r="G33" t="s">
-        <v>438</v>
+        <v>560</v>
       </c>
       <c r="H33" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I33" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J33" t="s">
-        <v>38</v>
+        <v>613</v>
       </c>
       <c r="K33" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="D34" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="E34" t="s">
-        <v>336</v>
+        <v>412</v>
       </c>
       <c r="F34" t="s">
-        <v>376</v>
+        <v>492</v>
       </c>
       <c r="G34" t="s">
-        <v>336</v>
+        <v>561</v>
       </c>
       <c r="H34" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I34" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J34" t="s">
-        <v>39</v>
+        <v>613</v>
       </c>
       <c r="K34" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="D35" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="E35" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="F35" t="s">
-        <v>376</v>
+        <v>492</v>
       </c>
       <c r="G35" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H35" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I35" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J35" t="s">
-        <v>40</v>
+        <v>613</v>
       </c>
       <c r="K35" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="D36" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="E36" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="F36" t="s">
-        <v>376</v>
+        <v>493</v>
       </c>
       <c r="G36" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H36" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I36" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>613</v>
       </c>
       <c r="K36" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="D37" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="E37" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="F37" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="G37" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H37" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I37" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>613</v>
       </c>
       <c r="K37" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="D38" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="E38" t="s">
-        <v>335</v>
+        <v>420</v>
       </c>
       <c r="F38" t="s">
-        <v>394</v>
+        <v>492</v>
       </c>
       <c r="G38" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="H38" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I38" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>613</v>
       </c>
       <c r="K38" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D39" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="E39" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="F39" t="s">
-        <v>376</v>
+        <v>492</v>
       </c>
       <c r="G39" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H39" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I39" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>613</v>
       </c>
       <c r="K39" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="D40" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="E40" t="s">
-        <v>347</v>
+        <v>420</v>
       </c>
       <c r="F40" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="G40" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H40" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I40" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>613</v>
       </c>
       <c r="K40" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>330</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>436</v>
       </c>
       <c r="F41" t="s">
-        <v>104</v>
+        <v>494</v>
       </c>
       <c r="G41" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
       <c r="H41" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I41" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>613</v>
       </c>
       <c r="K41" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="D42" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="E42" t="s">
-        <v>336</v>
+        <v>434</v>
       </c>
       <c r="F42" t="s">
-        <v>376</v>
+        <v>495</v>
       </c>
       <c r="G42" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H42" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I42" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J42" t="s">
-        <v>493</v>
+        <v>613</v>
       </c>
       <c r="K42" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>277</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>336</v>
+        <v>110</v>
       </c>
       <c r="F43" t="s">
-        <v>396</v>
+        <v>110</v>
       </c>
       <c r="G43" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H43" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I43" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J43" t="s">
-        <v>493</v>
+        <v>613</v>
       </c>
       <c r="K43" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="D44" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="E44" t="s">
-        <v>335</v>
+        <v>437</v>
       </c>
       <c r="F44" t="s">
-        <v>376</v>
+        <v>496</v>
       </c>
       <c r="G44" t="s">
-        <v>336</v>
+        <v>563</v>
       </c>
       <c r="H44" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I44" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J44" t="s">
-        <v>494</v>
+        <v>613</v>
       </c>
       <c r="K44" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="D45" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="E45" t="s">
-        <v>335</v>
+        <v>412</v>
       </c>
       <c r="F45" t="s">
-        <v>393</v>
+        <v>492</v>
       </c>
       <c r="G45" t="s">
-        <v>336</v>
+        <v>564</v>
       </c>
       <c r="H45" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I45" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J45" t="s">
-        <v>494</v>
+        <v>613</v>
       </c>
       <c r="K45" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="D46" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="E46" t="s">
-        <v>349</v>
+        <v>414</v>
       </c>
       <c r="F46" t="s">
-        <v>397</v>
+        <v>497</v>
       </c>
       <c r="G46" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="H46" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I46" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>613</v>
       </c>
       <c r="K46" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="D47" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="E47" t="s">
-        <v>350</v>
+        <v>437</v>
       </c>
       <c r="F47" t="s">
-        <v>398</v>
+        <v>492</v>
       </c>
       <c r="G47" t="s">
-        <v>441</v>
+        <v>565</v>
       </c>
       <c r="H47" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I47" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J47" t="s">
-        <v>494</v>
+        <v>613</v>
       </c>
       <c r="K47" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="D48" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="E48" t="s">
-        <v>336</v>
+        <v>438</v>
       </c>
       <c r="F48" t="s">
-        <v>399</v>
+        <v>498</v>
       </c>
       <c r="G48" t="s">
-        <v>336</v>
+        <v>566</v>
       </c>
       <c r="H48" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I48" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="J48" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K48" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="D49" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="E49" t="s">
-        <v>336</v>
+        <v>414</v>
       </c>
       <c r="F49" t="s">
-        <v>376</v>
+        <v>469</v>
       </c>
       <c r="G49" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H49" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I49" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="J49" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K49" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="D50" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="E50" t="s">
-        <v>336</v>
+        <v>418</v>
       </c>
       <c r="F50" t="s">
-        <v>376</v>
+        <v>474</v>
       </c>
       <c r="G50" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H50" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I50" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="J50" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K50" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="D51" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="E51" t="s">
-        <v>351</v>
+        <v>439</v>
       </c>
       <c r="F51" t="s">
-        <v>376</v>
+        <v>499</v>
       </c>
       <c r="G51" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="H51" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I51" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="J51" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K51" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="D52" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="E52" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="F52" t="s">
-        <v>376</v>
+        <v>498</v>
       </c>
       <c r="G52" t="s">
-        <v>443</v>
+        <v>567</v>
       </c>
       <c r="H52" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I52" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="J52" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K52" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="D53" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="E53" t="s">
-        <v>353</v>
+        <v>440</v>
       </c>
       <c r="F53" t="s">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G53" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="H53" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I53" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="J53" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K53" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="D54" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="E54" t="s">
-        <v>339</v>
+        <v>441</v>
       </c>
       <c r="F54" t="s">
-        <v>380</v>
+        <v>501</v>
       </c>
       <c r="G54" t="s">
-        <v>445</v>
+        <v>568</v>
       </c>
       <c r="H54" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I54" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J54" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K54" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="D55" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="E55" t="s">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="F55" t="s">
-        <v>401</v>
+        <v>502</v>
       </c>
       <c r="G55" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="H55" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I55" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J55" t="s">
-        <v>17</v>
+        <v>613</v>
       </c>
       <c r="K55" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="D56" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="E56" t="s">
-        <v>343</v>
+        <v>412</v>
       </c>
       <c r="F56" t="s">
-        <v>387</v>
+        <v>467</v>
       </c>
       <c r="G56" t="s">
-        <v>447</v>
+        <v>539</v>
       </c>
       <c r="H56" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I56" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J56" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K56" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C57" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="D57" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E57" t="s">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="F57" t="s">
-        <v>402</v>
+        <v>467</v>
       </c>
       <c r="G57" t="s">
-        <v>448</v>
+        <v>539</v>
       </c>
       <c r="H57" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I57" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J57" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K57" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="D58" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="E58" t="s">
-        <v>338</v>
+        <v>436</v>
       </c>
       <c r="F58" t="s">
-        <v>379</v>
+        <v>494</v>
       </c>
       <c r="G58" t="s">
-        <v>336</v>
+        <v>569</v>
       </c>
       <c r="H58" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I58" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>613</v>
       </c>
       <c r="K58" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="D59" t="s">
-        <v>293</v>
+        <v>346</v>
       </c>
       <c r="E59" t="s">
-        <v>356</v>
+        <v>442</v>
       </c>
       <c r="F59" t="s">
-        <v>403</v>
+        <v>503</v>
       </c>
       <c r="G59" t="s">
-        <v>449</v>
+        <v>570</v>
       </c>
       <c r="H59" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I59" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J59" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K59" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="D60" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="E60" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
       <c r="F60" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="G60" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H60" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I60" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J60" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="K60" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C61" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="D61" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="E61" t="s">
-        <v>337</v>
+        <v>420</v>
       </c>
       <c r="F61" t="s">
-        <v>404</v>
+        <v>505</v>
       </c>
       <c r="G61" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="H61" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I61" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J61" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K61" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="D62" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="E62" t="s">
-        <v>358</v>
+        <v>429</v>
       </c>
       <c r="F62" t="s">
-        <v>386</v>
+        <v>485</v>
       </c>
       <c r="G62" t="s">
-        <v>451</v>
+        <v>571</v>
       </c>
       <c r="H62" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I62" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J62" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="K62" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C63" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="D63" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="E63" t="s">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="F63" t="s">
-        <v>405</v>
+        <v>474</v>
       </c>
       <c r="G63" t="s">
-        <v>452</v>
+        <v>572</v>
       </c>
       <c r="H63" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I63" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J63" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="K63" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="D64" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="E64" t="s">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="F64" t="s">
-        <v>387</v>
+        <v>485</v>
       </c>
       <c r="G64" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H64" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I64" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J64" t="s">
-        <v>490</v>
+        <v>613</v>
       </c>
       <c r="K64" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="D65" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="E65" t="s">
-        <v>343</v>
+        <v>444</v>
       </c>
       <c r="F65" t="s">
-        <v>387</v>
+        <v>506</v>
       </c>
       <c r="G65" t="s">
-        <v>453</v>
+        <v>573</v>
       </c>
       <c r="H65" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I65" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J65" t="s">
-        <v>28</v>
+        <v>613</v>
       </c>
       <c r="K65" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="D66" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="E66" t="s">
-        <v>344</v>
+        <v>418</v>
       </c>
       <c r="F66" t="s">
-        <v>389</v>
+        <v>474</v>
       </c>
       <c r="G66" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="H66" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I66" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J66" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="K66" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="D67" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
       <c r="E67" t="s">
-        <v>344</v>
+        <v>445</v>
       </c>
       <c r="F67" t="s">
-        <v>389</v>
+        <v>507</v>
       </c>
       <c r="G67" t="s">
-        <v>455</v>
+        <v>574</v>
       </c>
       <c r="H67" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I67" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J67" t="s">
-        <v>27</v>
+        <v>613</v>
       </c>
       <c r="K67" t="s">
-        <v>33</v>
+        <v>614</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="D68" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="E68" t="s">
-        <v>360</v>
+        <v>446</v>
       </c>
       <c r="F68" t="s">
-        <v>406</v>
+        <v>508</v>
       </c>
       <c r="G68" t="s">
-        <v>456</v>
+        <v>575</v>
       </c>
       <c r="H68" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I68" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J68" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="K68" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C69" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="D69" t="s">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="E69" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="F69" t="s">
-        <v>406</v>
+        <v>490</v>
       </c>
       <c r="G69" t="s">
-        <v>457</v>
+        <v>576</v>
       </c>
       <c r="H69" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I69" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J69" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="K69" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="D70" t="s">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="E70" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="F70" t="s">
-        <v>406</v>
+        <v>509</v>
       </c>
       <c r="G70" t="s">
-        <v>458</v>
+        <v>577</v>
       </c>
       <c r="H70" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I70" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J70" t="s">
-        <v>33</v>
+        <v>613</v>
       </c>
       <c r="K70" t="s">
-        <v>33</v>
+        <v>614</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="D71" t="s">
-        <v>301</v>
+        <v>357</v>
       </c>
       <c r="E71" t="s">
-        <v>347</v>
+        <v>447</v>
       </c>
       <c r="F71" t="s">
-        <v>407</v>
+        <v>509</v>
       </c>
       <c r="G71" t="s">
-        <v>336</v>
+        <v>578</v>
       </c>
       <c r="H71" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I71" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J71" t="s">
-        <v>491</v>
+        <v>613</v>
       </c>
       <c r="K71" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="D72" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="E72" t="s">
-        <v>336</v>
+        <v>448</v>
       </c>
       <c r="F72" t="s">
-        <v>376</v>
+        <v>510</v>
       </c>
       <c r="G72" t="s">
-        <v>336</v>
+        <v>579</v>
       </c>
       <c r="H72" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I72" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J72" t="s">
-        <v>491</v>
+        <v>613</v>
       </c>
       <c r="K72" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="D73" t="s">
-        <v>302</v>
+        <v>359</v>
       </c>
       <c r="E73" t="s">
-        <v>347</v>
+        <v>420</v>
       </c>
       <c r="F73" t="s">
-        <v>395</v>
+        <v>511</v>
       </c>
       <c r="G73" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H73" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I73" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J73" t="s">
-        <v>491</v>
+        <v>613</v>
       </c>
       <c r="K73" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C74" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="D74" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="E74" t="s">
-        <v>356</v>
+        <v>420</v>
       </c>
       <c r="F74" t="s">
-        <v>403</v>
+        <v>511</v>
       </c>
       <c r="G74" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="H74" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I74" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J74" t="s">
-        <v>492</v>
+        <v>613</v>
       </c>
       <c r="K74" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="D75" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="E75" t="s">
-        <v>347</v>
+        <v>447</v>
       </c>
       <c r="F75" t="s">
-        <v>392</v>
+        <v>509</v>
       </c>
       <c r="G75" t="s">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="H75" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I75" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J75" t="s">
-        <v>37</v>
+        <v>613</v>
       </c>
       <c r="K75" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C76" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="D76" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="E76" t="s">
-        <v>335</v>
+        <v>447</v>
       </c>
       <c r="F76" t="s">
-        <v>408</v>
+        <v>509</v>
       </c>
       <c r="G76" t="s">
-        <v>336</v>
+        <v>581</v>
       </c>
       <c r="H76" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I76" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>613</v>
       </c>
       <c r="K76" t="s">
-        <v>497</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C77" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="D77" t="s">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="E77" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="F77" t="s">
-        <v>376</v>
+        <v>512</v>
       </c>
       <c r="G77" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H77" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I77" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>613</v>
       </c>
       <c r="K77" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="D78" t="s">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="E78" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="F78" t="s">
-        <v>408</v>
+        <v>472</v>
       </c>
       <c r="G78" t="s">
-        <v>461</v>
+        <v>582</v>
       </c>
       <c r="H78" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I78" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>613</v>
       </c>
       <c r="K78" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C79" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="D79" t="s">
-        <v>308</v>
+        <v>363</v>
       </c>
       <c r="E79" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="F79" t="s">
-        <v>376</v>
+        <v>513</v>
       </c>
       <c r="G79" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H79" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I79" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>613</v>
       </c>
       <c r="K79" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C80" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="D80" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="E80" t="s">
-        <v>336</v>
+        <v>431</v>
       </c>
       <c r="F80" t="s">
-        <v>376</v>
+        <v>472</v>
       </c>
       <c r="G80" t="s">
-        <v>336</v>
+        <v>583</v>
       </c>
       <c r="H80" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I80" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>613</v>
       </c>
       <c r="K80" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C81" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="D81" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="E81" t="s">
-        <v>336</v>
+        <v>431</v>
       </c>
       <c r="F81" t="s">
-        <v>376</v>
+        <v>472</v>
       </c>
       <c r="G81" t="s">
-        <v>336</v>
+        <v>584</v>
       </c>
       <c r="H81" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I81" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>613</v>
       </c>
       <c r="K81" t="s">
-        <v>497</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C82" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="D82" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="E82" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="F82" t="s">
-        <v>395</v>
+        <v>467</v>
       </c>
       <c r="G82" t="s">
-        <v>336</v>
+        <v>539</v>
       </c>
       <c r="H82" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I82" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J82" t="s">
-        <v>55</v>
+        <v>613</v>
       </c>
       <c r="K82" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C83" t="s">
-        <v>146</v>
+        <v>259</v>
       </c>
       <c r="D83" t="s">
-        <v>146</v>
+        <v>294</v>
       </c>
       <c r="E83" t="s">
-        <v>146</v>
+        <v>412</v>
       </c>
       <c r="F83" t="s">
-        <v>146</v>
+        <v>467</v>
       </c>
       <c r="G83" t="s">
-        <v>336</v>
+        <v>585</v>
       </c>
       <c r="H83" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I83" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J83" t="s">
-        <v>55</v>
+        <v>613</v>
       </c>
       <c r="K83" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C84" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="D84" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="E84" t="s">
-        <v>351</v>
+        <v>449</v>
       </c>
       <c r="F84" t="s">
-        <v>409</v>
+        <v>486</v>
       </c>
       <c r="G84" t="s">
-        <v>462</v>
+        <v>586</v>
       </c>
       <c r="H84" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I84" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J84" t="s">
-        <v>495</v>
+        <v>613</v>
       </c>
       <c r="K84" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C85" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="D85" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="E85" t="s">
-        <v>361</v>
+        <v>429</v>
       </c>
       <c r="F85" t="s">
-        <v>410</v>
+        <v>485</v>
       </c>
       <c r="G85" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="H85" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I85" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J85" t="s">
-        <v>495</v>
+        <v>613</v>
       </c>
       <c r="K85" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B86" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C86" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="D86" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="E86" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="F86" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="G86" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="H86" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I86" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J86" t="s">
-        <v>493</v>
+        <v>613</v>
       </c>
       <c r="K86" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C87" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="D87" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="E87" t="s">
-        <v>362</v>
+        <v>450</v>
       </c>
       <c r="F87" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="G87" t="s">
-        <v>465</v>
+        <v>588</v>
       </c>
       <c r="H87" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I87" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J87" t="s">
-        <v>493</v>
+        <v>613</v>
       </c>
       <c r="K87" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B88" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C88" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D88" t="s">
-        <v>307</v>
+        <v>367</v>
       </c>
       <c r="E88" t="s">
-        <v>335</v>
+        <v>420</v>
       </c>
       <c r="F88" t="s">
-        <v>408</v>
+        <v>492</v>
       </c>
       <c r="G88" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="H88" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I88" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J88" t="s">
-        <v>493</v>
+        <v>613</v>
       </c>
       <c r="K88" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C89" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="D89" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="E89" t="s">
-        <v>335</v>
+        <v>420</v>
       </c>
       <c r="F89" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="G89" t="s">
-        <v>467</v>
+        <v>420</v>
       </c>
       <c r="H89" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I89" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J89" t="s">
-        <v>494</v>
+        <v>613</v>
       </c>
       <c r="K89" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C90" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="D90" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="E90" t="s">
-        <v>351</v>
+        <v>420</v>
       </c>
       <c r="F90" t="s">
-        <v>409</v>
+        <v>492</v>
       </c>
       <c r="G90" t="s">
-        <v>468</v>
+        <v>420</v>
       </c>
       <c r="H90" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I90" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J90" t="s">
-        <v>494</v>
+        <v>613</v>
       </c>
       <c r="K90" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B91" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C91" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="D91" t="s">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="E91" t="s">
-        <v>349</v>
+        <v>420</v>
       </c>
       <c r="F91" t="s">
-        <v>397</v>
+        <v>514</v>
       </c>
       <c r="G91" t="s">
-        <v>469</v>
+        <v>420</v>
       </c>
       <c r="H91" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="I91" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J91" t="s">
-        <v>494</v>
+        <v>613</v>
       </c>
       <c r="K91" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C92" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="D92" t="s">
-        <v>316</v>
+        <v>371</v>
       </c>
       <c r="E92" t="s">
-        <v>336</v>
+        <v>412</v>
       </c>
       <c r="F92" t="s">
-        <v>412</v>
+        <v>492</v>
       </c>
       <c r="G92" t="s">
-        <v>336</v>
+        <v>589</v>
       </c>
       <c r="H92" t="s">
-        <v>484</v>
+        <v>609</v>
       </c>
       <c r="I92" t="s">
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="J92" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K92" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C93" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="D93" t="s">
-        <v>317</v>
+        <v>372</v>
       </c>
       <c r="E93" t="s">
-        <v>363</v>
+        <v>451</v>
       </c>
       <c r="F93" t="s">
-        <v>413</v>
+        <v>515</v>
       </c>
       <c r="G93" t="s">
-        <v>336</v>
+        <v>590</v>
       </c>
       <c r="H93" t="s">
-        <v>484</v>
+        <v>609</v>
       </c>
       <c r="I93" t="s">
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="J93" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K93" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B94" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C94" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="D94" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="E94" t="s">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="F94" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
       <c r="G94" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H94" t="s">
-        <v>484</v>
+        <v>609</v>
       </c>
       <c r="I94" t="s">
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="J94" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K94" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B95" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C95" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="D95" t="s">
-        <v>318</v>
+        <v>162</v>
       </c>
       <c r="E95" t="s">
-        <v>363</v>
+        <v>162</v>
       </c>
       <c r="F95" t="s">
-        <v>413</v>
+        <v>162</v>
       </c>
       <c r="G95" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H95" t="s">
-        <v>484</v>
+        <v>609</v>
       </c>
       <c r="I95" t="s">
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="J95" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K95" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B96" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C96" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="D96" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="E96" t="s">
-        <v>364</v>
+        <v>452</v>
       </c>
       <c r="F96" t="s">
-        <v>414</v>
+        <v>517</v>
       </c>
       <c r="G96" t="s">
-        <v>470</v>
+        <v>591</v>
       </c>
       <c r="H96" t="s">
-        <v>484</v>
+        <v>609</v>
       </c>
       <c r="I96" t="s">
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="J96" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K96" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B97" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C97" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="D97" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="E97" t="s">
-        <v>365</v>
+        <v>437</v>
       </c>
       <c r="F97" t="s">
-        <v>415</v>
+        <v>496</v>
       </c>
       <c r="G97" t="s">
-        <v>471</v>
+        <v>592</v>
       </c>
       <c r="H97" t="s">
-        <v>484</v>
+        <v>609</v>
       </c>
       <c r="I97" t="s">
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="J97" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K97" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B98" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C98" t="s">
-        <v>186</v>
+        <v>270</v>
       </c>
       <c r="D98" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="E98" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="F98" t="s">
-        <v>416</v>
+        <v>492</v>
       </c>
       <c r="G98" t="s">
-        <v>336</v>
+        <v>593</v>
       </c>
       <c r="H98" t="s">
-        <v>484</v>
+        <v>609</v>
       </c>
       <c r="I98" t="s">
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="J98" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K98" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C99" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="D99" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="E99" t="s">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="F99" t="s">
-        <v>417</v>
+        <v>501</v>
       </c>
       <c r="G99" t="s">
-        <v>472</v>
+        <v>594</v>
       </c>
       <c r="H99" t="s">
-        <v>484</v>
+        <v>609</v>
       </c>
       <c r="I99" t="s">
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="J99" t="s">
-        <v>17</v>
+        <v>613</v>
       </c>
       <c r="K99" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C100" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="D100" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="E100" t="s">
-        <v>365</v>
+        <v>438</v>
       </c>
       <c r="F100" t="s">
-        <v>415</v>
+        <v>498</v>
       </c>
       <c r="G100" t="s">
-        <v>336</v>
+        <v>595</v>
       </c>
       <c r="H100" t="s">
-        <v>484</v>
+        <v>609</v>
       </c>
       <c r="I100" t="s">
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="J100" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K100" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C101" t="s">
-        <v>186</v>
+        <v>273</v>
       </c>
       <c r="D101" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="E101" t="s">
-        <v>368</v>
+        <v>441</v>
       </c>
       <c r="F101" t="s">
-        <v>418</v>
+        <v>492</v>
       </c>
       <c r="G101" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H101" t="s">
-        <v>484</v>
+        <v>609</v>
       </c>
       <c r="I101" t="s">
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="J101" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K101" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B102" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C102" t="s">
-        <v>187</v>
+        <v>274</v>
       </c>
       <c r="D102" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="E102" t="s">
-        <v>365</v>
+        <v>438</v>
       </c>
       <c r="F102" t="s">
-        <v>415</v>
+        <v>498</v>
       </c>
       <c r="G102" t="s">
-        <v>336</v>
+        <v>596</v>
       </c>
       <c r="H102" t="s">
-        <v>484</v>
+        <v>609</v>
       </c>
       <c r="I102" t="s">
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="J102" t="s">
-        <v>53</v>
+        <v>613</v>
       </c>
       <c r="K102" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B103" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C103" t="s">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="D103" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="E103" t="s">
-        <v>365</v>
+        <v>438</v>
       </c>
       <c r="F103" t="s">
-        <v>415</v>
+        <v>498</v>
       </c>
       <c r="G103" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="H103" t="s">
-        <v>484</v>
+        <v>609</v>
       </c>
       <c r="I103" t="s">
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="J103" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K103" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C104" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="D104" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="E104" t="s">
-        <v>369</v>
+        <v>453</v>
       </c>
       <c r="F104" t="s">
-        <v>419</v>
+        <v>498</v>
       </c>
       <c r="G104" t="s">
-        <v>473</v>
+        <v>598</v>
       </c>
       <c r="H104" t="s">
-        <v>484</v>
+        <v>609</v>
       </c>
       <c r="I104" t="s">
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="J104" t="s">
-        <v>492</v>
+        <v>613</v>
       </c>
       <c r="K104" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B105" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C105" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="D105" t="s">
-        <v>328</v>
+        <v>380</v>
       </c>
       <c r="E105" t="s">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="F105" t="s">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="G105" t="s">
-        <v>474</v>
+        <v>420</v>
       </c>
       <c r="H105" t="s">
-        <v>484</v>
+        <v>609</v>
       </c>
       <c r="I105" t="s">
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="J105" t="s">
-        <v>39</v>
+        <v>613</v>
       </c>
       <c r="K105" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B106" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C106" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="D106" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="E106" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="F106" t="s">
-        <v>420</v>
+        <v>518</v>
       </c>
       <c r="G106" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H106" t="s">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="I106" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J106" t="s">
-        <v>39</v>
+        <v>613</v>
       </c>
       <c r="K106" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C107" t="s">
-        <v>169</v>
+        <v>278</v>
       </c>
       <c r="D107" t="s">
-        <v>169</v>
+        <v>382</v>
       </c>
       <c r="E107" t="s">
-        <v>169</v>
+        <v>420</v>
       </c>
       <c r="F107" t="s">
-        <v>169</v>
+        <v>519</v>
       </c>
       <c r="G107" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H107" t="s">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="I107" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="J107" t="s">
-        <v>55</v>
+        <v>613</v>
       </c>
       <c r="K107" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B108" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C108" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D108" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="E108" t="s">
-        <v>371</v>
+        <v>454</v>
       </c>
       <c r="F108" t="s">
-        <v>421</v>
+        <v>520</v>
       </c>
       <c r="G108" t="s">
-        <v>475</v>
+        <v>599</v>
       </c>
       <c r="H108" t="s">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="I108" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="J108" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K108" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C109" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="D109" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="E109" t="s">
-        <v>365</v>
+        <v>455</v>
       </c>
       <c r="F109" t="s">
-        <v>415</v>
+        <v>521</v>
       </c>
       <c r="G109" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H109" t="s">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="I109" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="J109" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K109" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="110">
@@ -5381,34 +5731,34 @@
         <v>15</v>
       </c>
       <c r="B110" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C110" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="D110" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="E110" t="s">
-        <v>371</v>
+        <v>456</v>
       </c>
       <c r="F110" t="s">
-        <v>421</v>
+        <v>522</v>
       </c>
       <c r="G110" t="s">
-        <v>476</v>
+        <v>600</v>
       </c>
       <c r="H110" t="s">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="I110" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="J110" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K110" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="111">
@@ -5416,34 +5766,34 @@
         <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C111" t="s">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="D111" t="s">
-        <v>331</v>
+        <v>386</v>
       </c>
       <c r="E111" t="s">
-        <v>372</v>
+        <v>457</v>
       </c>
       <c r="F111" t="s">
-        <v>418</v>
+        <v>523</v>
       </c>
       <c r="G111" t="s">
-        <v>477</v>
+        <v>420</v>
       </c>
       <c r="H111" t="s">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="I111" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="J111" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K111" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="112">
@@ -5451,209 +5801,944 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C112" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="D112" t="s">
-        <v>322</v>
+        <v>387</v>
       </c>
       <c r="E112" t="s">
-        <v>373</v>
+        <v>457</v>
       </c>
       <c r="F112" t="s">
-        <v>422</v>
+        <v>523</v>
       </c>
       <c r="G112" t="s">
-        <v>478</v>
+        <v>420</v>
       </c>
       <c r="H112" t="s">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="I112" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="J112" t="s">
-        <v>17</v>
+        <v>613</v>
       </c>
       <c r="K112" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B113" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C113" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
       <c r="D113" t="s">
-        <v>332</v>
+        <v>388</v>
       </c>
       <c r="E113" t="s">
-        <v>374</v>
+        <v>457</v>
       </c>
       <c r="F113" t="s">
-        <v>423</v>
+        <v>523</v>
       </c>
       <c r="G113" t="s">
-        <v>479</v>
+        <v>420</v>
       </c>
       <c r="H113" t="s">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="I113" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="J113" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K113" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B114" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C114" t="s">
-        <v>213</v>
+        <v>284</v>
       </c>
       <c r="D114" t="s">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="E114" t="s">
-        <v>375</v>
+        <v>458</v>
       </c>
       <c r="F114" t="s">
-        <v>422</v>
+        <v>524</v>
       </c>
       <c r="G114" t="s">
-        <v>480</v>
+        <v>601</v>
       </c>
       <c r="H114" t="s">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="I114" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="J114" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K114" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C115" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="D115" t="s">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="E115" t="s">
-        <v>365</v>
+        <v>459</v>
       </c>
       <c r="F115" t="s">
-        <v>415</v>
+        <v>525</v>
       </c>
       <c r="G115" t="s">
-        <v>481</v>
+        <v>602</v>
       </c>
       <c r="H115" t="s">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="I115" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="J115" t="s">
-        <v>53</v>
+        <v>613</v>
       </c>
       <c r="K115" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C116" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D116" t="s">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="E116" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="F116" t="s">
-        <v>422</v>
+        <v>526</v>
       </c>
       <c r="G116" t="s">
-        <v>482</v>
+        <v>420</v>
       </c>
       <c r="H116" t="s">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="I116" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="J116" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="K116" t="s">
-        <v>496</v>
+        <v>614</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C117" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="D117" t="s">
-        <v>179</v>
+        <v>392</v>
       </c>
       <c r="E117" t="s">
-        <v>179</v>
+        <v>460</v>
       </c>
       <c r="F117" t="s">
-        <v>179</v>
+        <v>507</v>
       </c>
       <c r="G117" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="H117" t="s">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="I117" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="J117" t="s">
-        <v>64</v>
+        <v>613</v>
       </c>
       <c r="K117" t="s">
-        <v>497</v>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" t="s">
+        <v>185</v>
+      </c>
+      <c r="C118" t="s">
+        <v>286</v>
+      </c>
+      <c r="D118" t="s">
+        <v>393</v>
+      </c>
+      <c r="E118" t="s">
+        <v>461</v>
+      </c>
+      <c r="F118" t="s">
+        <v>527</v>
+      </c>
+      <c r="G118" t="s">
+        <v>420</v>
+      </c>
+      <c r="H118" t="s">
+        <v>610</v>
+      </c>
+      <c r="I118" t="s">
+        <v>611</v>
+      </c>
+      <c r="J118" t="s">
+        <v>613</v>
+      </c>
+      <c r="K118" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" t="s">
+        <v>186</v>
+      </c>
+      <c r="C119" t="s">
+        <v>287</v>
+      </c>
+      <c r="D119" t="s">
+        <v>394</v>
+      </c>
+      <c r="E119" t="s">
+        <v>420</v>
+      </c>
+      <c r="F119" t="s">
+        <v>528</v>
+      </c>
+      <c r="G119" t="s">
+        <v>420</v>
+      </c>
+      <c r="H119" t="s">
+        <v>610</v>
+      </c>
+      <c r="I119" t="s">
+        <v>611</v>
+      </c>
+      <c r="J119" t="s">
+        <v>613</v>
+      </c>
+      <c r="K119" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>187</v>
+      </c>
+      <c r="C120" t="s">
+        <v>285</v>
+      </c>
+      <c r="D120" t="s">
+        <v>395</v>
+      </c>
+      <c r="E120" t="s">
+        <v>461</v>
+      </c>
+      <c r="F120" t="s">
+        <v>527</v>
+      </c>
+      <c r="G120" t="s">
+        <v>603</v>
+      </c>
+      <c r="H120" t="s">
+        <v>610</v>
+      </c>
+      <c r="I120" t="s">
+        <v>611</v>
+      </c>
+      <c r="J120" t="s">
+        <v>613</v>
+      </c>
+      <c r="K120" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>41</v>
+      </c>
+      <c r="B121" t="s">
+        <v>188</v>
+      </c>
+      <c r="C121" t="s">
+        <v>288</v>
+      </c>
+      <c r="D121" t="s">
+        <v>396</v>
+      </c>
+      <c r="E121" t="s">
+        <v>420</v>
+      </c>
+      <c r="F121" t="s">
+        <v>529</v>
+      </c>
+      <c r="G121" t="s">
+        <v>420</v>
+      </c>
+      <c r="H121" t="s">
+        <v>610</v>
+      </c>
+      <c r="I121" t="s">
+        <v>611</v>
+      </c>
+      <c r="J121" t="s">
+        <v>613</v>
+      </c>
+      <c r="K121" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" t="s">
+        <v>189</v>
+      </c>
+      <c r="C122" t="s">
+        <v>289</v>
+      </c>
+      <c r="D122" t="s">
+        <v>397</v>
+      </c>
+      <c r="E122" t="s">
+        <v>462</v>
+      </c>
+      <c r="F122" t="s">
+        <v>530</v>
+      </c>
+      <c r="G122" t="s">
+        <v>420</v>
+      </c>
+      <c r="H122" t="s">
+        <v>610</v>
+      </c>
+      <c r="I122" t="s">
+        <v>611</v>
+      </c>
+      <c r="J122" t="s">
+        <v>613</v>
+      </c>
+      <c r="K122" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>43</v>
+      </c>
+      <c r="B123" t="s">
+        <v>189</v>
+      </c>
+      <c r="C123" t="s">
+        <v>289</v>
+      </c>
+      <c r="D123" t="s">
+        <v>398</v>
+      </c>
+      <c r="E123" t="s">
+        <v>462</v>
+      </c>
+      <c r="F123" t="s">
+        <v>530</v>
+      </c>
+      <c r="G123" t="s">
+        <v>420</v>
+      </c>
+      <c r="H123" t="s">
+        <v>610</v>
+      </c>
+      <c r="I123" t="s">
+        <v>611</v>
+      </c>
+      <c r="J123" t="s">
+        <v>613</v>
+      </c>
+      <c r="K123" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>44</v>
+      </c>
+      <c r="B124" t="s">
+        <v>190</v>
+      </c>
+      <c r="C124" t="s">
+        <v>289</v>
+      </c>
+      <c r="D124" t="s">
+        <v>399</v>
+      </c>
+      <c r="E124" t="s">
+        <v>420</v>
+      </c>
+      <c r="F124" t="s">
+        <v>531</v>
+      </c>
+      <c r="G124" t="s">
+        <v>420</v>
+      </c>
+      <c r="H124" t="s">
+        <v>610</v>
+      </c>
+      <c r="I124" t="s">
+        <v>611</v>
+      </c>
+      <c r="J124" t="s">
+        <v>613</v>
+      </c>
+      <c r="K124" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>63</v>
+      </c>
+      <c r="B125" t="s">
+        <v>191</v>
+      </c>
+      <c r="C125" t="s">
+        <v>191</v>
+      </c>
+      <c r="D125" t="s">
+        <v>191</v>
+      </c>
+      <c r="E125" t="s">
+        <v>191</v>
+      </c>
+      <c r="F125" t="s">
+        <v>191</v>
+      </c>
+      <c r="G125" t="s">
+        <v>420</v>
+      </c>
+      <c r="H125" t="s">
+        <v>610</v>
+      </c>
+      <c r="I125" t="s">
+        <v>611</v>
+      </c>
+      <c r="J125" t="s">
+        <v>613</v>
+      </c>
+      <c r="K125" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>65</v>
+      </c>
+      <c r="B126" t="s">
+        <v>192</v>
+      </c>
+      <c r="C126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D126" t="s">
+        <v>400</v>
+      </c>
+      <c r="E126" t="s">
+        <v>420</v>
+      </c>
+      <c r="F126" t="s">
+        <v>532</v>
+      </c>
+      <c r="G126" t="s">
+        <v>420</v>
+      </c>
+      <c r="H126" t="s">
+        <v>610</v>
+      </c>
+      <c r="I126" t="s">
+        <v>612</v>
+      </c>
+      <c r="J126" t="s">
+        <v>613</v>
+      </c>
+      <c r="K126" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" t="s">
+        <v>193</v>
+      </c>
+      <c r="C127" t="s">
+        <v>291</v>
+      </c>
+      <c r="D127" t="s">
+        <v>401</v>
+      </c>
+      <c r="E127" t="s">
+        <v>436</v>
+      </c>
+      <c r="F127" t="s">
+        <v>533</v>
+      </c>
+      <c r="G127" t="s">
+        <v>420</v>
+      </c>
+      <c r="H127" t="s">
+        <v>610</v>
+      </c>
+      <c r="I127" t="s">
+        <v>612</v>
+      </c>
+      <c r="J127" t="s">
+        <v>613</v>
+      </c>
+      <c r="K127" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" t="s">
+        <v>194</v>
+      </c>
+      <c r="C128" t="s">
+        <v>246</v>
+      </c>
+      <c r="D128" t="s">
+        <v>402</v>
+      </c>
+      <c r="E128" t="s">
+        <v>420</v>
+      </c>
+      <c r="F128" t="s">
+        <v>534</v>
+      </c>
+      <c r="G128" t="s">
+        <v>420</v>
+      </c>
+      <c r="H128" t="s">
+        <v>610</v>
+      </c>
+      <c r="I128" t="s">
+        <v>612</v>
+      </c>
+      <c r="J128" t="s">
+        <v>613</v>
+      </c>
+      <c r="K128" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" t="s">
+        <v>195</v>
+      </c>
+      <c r="C129" t="s">
+        <v>246</v>
+      </c>
+      <c r="D129" t="s">
+        <v>403</v>
+      </c>
+      <c r="E129" t="s">
+        <v>420</v>
+      </c>
+      <c r="F129" t="s">
+        <v>530</v>
+      </c>
+      <c r="G129" t="s">
+        <v>420</v>
+      </c>
+      <c r="H129" t="s">
+        <v>610</v>
+      </c>
+      <c r="I129" t="s">
+        <v>612</v>
+      </c>
+      <c r="J129" t="s">
+        <v>613</v>
+      </c>
+      <c r="K129" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
+        <v>196</v>
+      </c>
+      <c r="C130" t="s">
+        <v>248</v>
+      </c>
+      <c r="D130" t="s">
+        <v>404</v>
+      </c>
+      <c r="E130" t="s">
+        <v>436</v>
+      </c>
+      <c r="F130" t="s">
+        <v>535</v>
+      </c>
+      <c r="G130" t="s">
+        <v>604</v>
+      </c>
+      <c r="H130" t="s">
+        <v>610</v>
+      </c>
+      <c r="I130" t="s">
+        <v>612</v>
+      </c>
+      <c r="J130" t="s">
+        <v>613</v>
+      </c>
+      <c r="K130" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" t="s">
+        <v>197</v>
+      </c>
+      <c r="C131" t="s">
+        <v>292</v>
+      </c>
+      <c r="D131" t="s">
+        <v>405</v>
+      </c>
+      <c r="E131" t="s">
+        <v>460</v>
+      </c>
+      <c r="F131" t="s">
+        <v>507</v>
+      </c>
+      <c r="G131" t="s">
+        <v>605</v>
+      </c>
+      <c r="H131" t="s">
+        <v>610</v>
+      </c>
+      <c r="I131" t="s">
+        <v>612</v>
+      </c>
+      <c r="J131" t="s">
+        <v>613</v>
+      </c>
+      <c r="K131" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>198</v>
+      </c>
+      <c r="C132" t="s">
+        <v>252</v>
+      </c>
+      <c r="D132" t="s">
+        <v>406</v>
+      </c>
+      <c r="E132" t="s">
+        <v>463</v>
+      </c>
+      <c r="F132" t="s">
+        <v>525</v>
+      </c>
+      <c r="G132" t="s">
+        <v>606</v>
+      </c>
+      <c r="H132" t="s">
+        <v>610</v>
+      </c>
+      <c r="I132" t="s">
+        <v>612</v>
+      </c>
+      <c r="J132" t="s">
+        <v>613</v>
+      </c>
+      <c r="K132" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>22</v>
+      </c>
+      <c r="B133" t="s">
+        <v>199</v>
+      </c>
+      <c r="C133" t="s">
+        <v>251</v>
+      </c>
+      <c r="D133" t="s">
+        <v>407</v>
+      </c>
+      <c r="E133" t="s">
+        <v>464</v>
+      </c>
+      <c r="F133" t="s">
+        <v>525</v>
+      </c>
+      <c r="G133" t="s">
+        <v>420</v>
+      </c>
+      <c r="H133" t="s">
+        <v>610</v>
+      </c>
+      <c r="I133" t="s">
+        <v>612</v>
+      </c>
+      <c r="J133" t="s">
+        <v>613</v>
+      </c>
+      <c r="K133" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" t="s">
+        <v>200</v>
+      </c>
+      <c r="C134" t="s">
+        <v>257</v>
+      </c>
+      <c r="D134" t="s">
+        <v>408</v>
+      </c>
+      <c r="E134" t="s">
+        <v>420</v>
+      </c>
+      <c r="F134" t="s">
+        <v>536</v>
+      </c>
+      <c r="G134" t="s">
+        <v>420</v>
+      </c>
+      <c r="H134" t="s">
+        <v>610</v>
+      </c>
+      <c r="I134" t="s">
+        <v>612</v>
+      </c>
+      <c r="J134" t="s">
+        <v>613</v>
+      </c>
+      <c r="K134" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>43</v>
+      </c>
+      <c r="B135" t="s">
+        <v>201</v>
+      </c>
+      <c r="C135" t="s">
+        <v>293</v>
+      </c>
+      <c r="D135" t="s">
+        <v>409</v>
+      </c>
+      <c r="E135" t="s">
+        <v>420</v>
+      </c>
+      <c r="F135" t="s">
+        <v>537</v>
+      </c>
+      <c r="G135" t="s">
+        <v>420</v>
+      </c>
+      <c r="H135" t="s">
+        <v>610</v>
+      </c>
+      <c r="I135" t="s">
+        <v>612</v>
+      </c>
+      <c r="J135" t="s">
+        <v>613</v>
+      </c>
+      <c r="K135" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>45</v>
+      </c>
+      <c r="B136" t="s">
+        <v>202</v>
+      </c>
+      <c r="C136" t="s">
+        <v>268</v>
+      </c>
+      <c r="D136" t="s">
+        <v>410</v>
+      </c>
+      <c r="E136" t="s">
+        <v>465</v>
+      </c>
+      <c r="F136" t="s">
+        <v>538</v>
+      </c>
+      <c r="G136" t="s">
+        <v>607</v>
+      </c>
+      <c r="H136" t="s">
+        <v>610</v>
+      </c>
+      <c r="I136" t="s">
+        <v>612</v>
+      </c>
+      <c r="J136" t="s">
+        <v>613</v>
+      </c>
+      <c r="K136" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>68</v>
+      </c>
+      <c r="B137" t="s">
+        <v>203</v>
+      </c>
+      <c r="C137" t="s">
+        <v>268</v>
+      </c>
+      <c r="D137" t="s">
+        <v>411</v>
+      </c>
+      <c r="E137" t="s">
+        <v>466</v>
+      </c>
+      <c r="F137" t="s">
+        <v>538</v>
+      </c>
+      <c r="G137" t="s">
+        <v>608</v>
+      </c>
+      <c r="H137" t="s">
+        <v>610</v>
+      </c>
+      <c r="I137" t="s">
+        <v>612</v>
+      </c>
+      <c r="J137" t="s">
+        <v>613</v>
+      </c>
+      <c r="K137" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>69</v>
+      </c>
+      <c r="B138" t="s">
+        <v>204</v>
+      </c>
+      <c r="C138" t="s">
+        <v>204</v>
+      </c>
+      <c r="D138" t="s">
+        <v>204</v>
+      </c>
+      <c r="E138" t="s">
+        <v>204</v>
+      </c>
+      <c r="F138" t="s">
+        <v>204</v>
+      </c>
+      <c r="G138" t="s">
+        <v>420</v>
+      </c>
+      <c r="H138" t="s">
+        <v>610</v>
+      </c>
+      <c r="I138" t="s">
+        <v>612</v>
+      </c>
+      <c r="J138" t="s">
+        <v>613</v>
+      </c>
+      <c r="K138" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/proj_wikipedia/records_athletics/records_athletics_table.xlsx
+++ b/proj_wikipedia/records_athletics/records_athletics_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="620">
   <si>
     <t>Event</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>Date_recorded</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>100 m</t>
@@ -1867,7 +1879,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11.0"/>
@@ -1897,8 +1911,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1945,4800 +1961,6456 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K2" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L2" t="n" s="2">
+        <v>42196.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E3" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F3" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="G3" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H3" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I3" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J3" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K3" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L3" t="n" s="2">
+        <v>42112.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F4" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="G4" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H4" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I4" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J4" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K4" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L4" t="n" s="2">
+        <v>33819.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E5" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F5" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G5" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H5" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I5" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J5" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K5" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L5" t="n" s="2">
+        <v>42623.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F6" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G6" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H6" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I6" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J6" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K6" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L6" t="n" s="2">
+        <v>42526.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K7" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L7" t="n" s="2">
+        <v>41130.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E8" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F8" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H8" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I8" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J8" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K8" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L8" t="n" s="2">
+        <v>36408.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D9" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E9" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G9" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H9" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I9" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J9" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K9" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L9" t="n" s="2">
+        <v>37127.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E10" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F10" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G10" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H10" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I10" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J10" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K10" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L10" t="n" s="2">
+        <v>36348.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E11" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F11" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G11" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H11" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I11" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J11" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K11" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L11" t="n" s="2">
+        <v>36008.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D12" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E12" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F12" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G12" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H12" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I12" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J12" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K12" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L12" t="n" s="2">
+        <v>35309.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D13" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E13" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F13" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G13" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H13" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I13" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J13" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K13" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L13" t="n" s="2">
+        <v>35628.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D14" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E14" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F14" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G14" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H14" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I14" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J14" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K14" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L14" t="n" s="2">
+        <v>35664.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D15" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E15" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F15" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="G15" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H15" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I15" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J15" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K15" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L15" t="n" s="2">
+        <v>36611.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E16" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F16" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G16" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H16" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I16" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J16" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K16" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L16" t="n" s="2">
+        <v>41363.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D17" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E17" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F17" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G17" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="H17" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J17" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K17" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L17" t="n" s="2">
+        <v>35664.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D18" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E18" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F18" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="G18" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="H18" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I18" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J18" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K18" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L18" t="n" s="2">
+        <v>40447.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D19" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E19" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F19" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G19" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H19" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I19" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J19" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K19" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L19" t="n" s="2">
+        <v>40503.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D20" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E20" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F20" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="G20" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H20" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I20" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J20" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K20" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L20" t="n" s="2">
+        <v>40804.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E21" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F21" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G21" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H21" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I21" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J21" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K21" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L21" t="n" s="2">
+        <v>38998.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D22" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E22" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F22" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G22" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H22" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I22" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J22" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K22" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L22" t="n" s="2">
+        <v>39158.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D23" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E23" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F23" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="G23" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="H23" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I23" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J23" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K23" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L23" t="n" s="2">
+        <v>39965.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D24" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E24" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F24" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G24" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H24" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I24" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J24" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K24" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L24" t="n" s="2">
+        <v>40697.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E25" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F25" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G25" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="H25" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I25" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K25" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L25" t="n" s="2">
+        <v>41035.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D26" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F26" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G26" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H26" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I26" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J26" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K26" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L26" t="n" s="2">
+        <v>40697.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D27" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E27" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F27" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="G27" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H27" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I27" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J27" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K27" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L27" t="n" s="2">
+        <v>42484.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D28" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E28" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F28" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="G28" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H28" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I28" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J28" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K28" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L28" t="n" s="2">
+        <v>42484.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D29" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E29" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F29" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G29" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H29" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I29" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J29" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K29" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L29" t="n" s="2">
+        <v>41910.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D30" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E30" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F30" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G30" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="H30" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I30" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J30" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K30" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L30" t="n" s="2">
+        <v>42861.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D31" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E31" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F31" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G31" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H31" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I31" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J31" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K31" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L31" t="n" s="2">
+        <v>27055.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1974.0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D32" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E32" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F32" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G32" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H32" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I32" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J32" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K32" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L32" t="n" s="2">
+        <v>42600.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D33" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E33" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F33" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G33" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H33" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I33" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J33" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K33" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L33" t="n" s="2">
+        <v>40746.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D34" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E34" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F34" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G34" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H34" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I34" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J34" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K34" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L34" t="n" s="2">
+        <v>42216.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D35" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E35" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F35" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G35" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H35" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I35" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J35" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K35" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L35" t="n" s="2">
+        <v>36729.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D36" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E36" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F36" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G36" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H36" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I36" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J36" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K36" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L36" t="n" s="2">
+        <v>34956.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D37" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E37" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F37" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G37" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H37" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I37" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J37" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K37" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L37" t="n" s="2">
+        <v>35235.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D38" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E38" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F38" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G38" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H38" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I38" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J38" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K38" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L38" t="n" s="2">
+        <v>32787.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D39" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E39" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F39" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G39" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H39" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I39" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J39" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K39" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L39" t="n" s="2">
+        <v>34538.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D40" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E40" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F40" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G40" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H40" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I40" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J40" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K40" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L40" t="n" s="2">
+        <v>34152.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D41" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E41" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F41" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="G41" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="H41" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I41" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J41" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K41" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L41" t="n" s="2">
+        <v>42242.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D42" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E42" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F42" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="G42" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H42" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I42" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J42" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K42" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L42" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="M42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O42" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F43" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G43" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H43" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I43" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J43" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K43" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L43" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="M43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O43" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D44" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E44" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F44" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="G44" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H44" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I44" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J44" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K44" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L44" t="n" s="2">
+        <v>42547.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D45" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E45" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F45" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G45" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="H45" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I45" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J45" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K45" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L45" t="n" s="2">
+        <v>40740.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D46" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E46" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F46" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="G46" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H46" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I46" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J46" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K46" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L46" t="n" s="2">
+        <v>32416.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D47" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E47" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F47" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G47" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H47" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I47" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J47" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K47" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L47" t="n" s="2">
+        <v>40389.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D48" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E48" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F48" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G48" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="H48" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I48" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J48" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K48" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L48" t="n" s="2">
+        <v>41783.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D49" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E49" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F49" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="G49" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H49" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I49" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J49" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K49" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L49" t="n" s="2">
+        <v>33823.0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D50" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F50" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G50" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H50" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I50" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J50" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K50" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L50" t="n" s="2">
+        <v>38954.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D51" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E51" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F51" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="G51" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H51" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I51" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J51" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K51" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L51" t="n" s="2">
+        <v>38836.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D52" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E52" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F52" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G52" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="H52" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I52" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J52" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K52" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L52" t="n" s="2">
+        <v>41784.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D53" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E53" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F53" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G53" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H53" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I53" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J53" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K53" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L53" t="n" s="2">
+        <v>38679.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D54" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E54" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F54" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G54" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="H54" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I54" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J54" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K54" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L54" t="n" s="2">
+        <v>42261.0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D55" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E55" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F55" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G55" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H55" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I55" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J55" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K55" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L55" t="n" s="2">
+        <v>30902.0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D56" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E56" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F56" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G56" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H56" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I56" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J56" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K56" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L56" t="n" s="2">
+        <v>42195.0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D57" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E57" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F57" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G57" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H57" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I57" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J57" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K57" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L57" t="n" s="2">
+        <v>42196.0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D58" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E58" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F58" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="G58" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="H58" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I58" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J58" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K58" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L58" t="n" s="2">
+        <v>42240.0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D59" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E59" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F59" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G59" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H59" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I59" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J59" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K59" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L59" t="n" s="2">
+        <v>41095.0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D60" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E60" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F60" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G60" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H60" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I60" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J60" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K60" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L60" t="n" s="2">
+        <v>39689.0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D61" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E61" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F61" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="G61" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H61" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I61" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J61" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K61" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L61" t="n" s="2">
+        <v>37081.0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C62" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D62" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E62" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F62" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G62" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="H62" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I62" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J62" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K62" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L62" t="n" s="2">
+        <v>42518.0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D63" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E63" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F63" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G63" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="H63" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I63" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J63" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K63" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L63" t="n" s="2">
+        <v>42258.0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D64" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E64" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F64" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G64" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H64" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I64" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J64" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K64" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L64" t="n" s="2">
+        <v>39971.0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C65" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D65" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E65" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F65" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="G65" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="H65" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I65" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J65" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K65" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L65" t="n" s="2">
+        <v>41768.0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D66" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E66" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F66" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G66" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H66" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I66" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J66" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K66" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L66" t="n" s="2">
+        <v>39339.0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C67" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D67" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E67" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F67" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="G67" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H67" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I67" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J67" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K67" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L67" t="n" s="2">
+        <v>40753.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C68" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D68" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E68" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F68" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G68" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H68" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I68" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J68" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K68" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L68" t="n" s="2">
+        <v>41560.0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D69" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E69" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F69" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G69" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H69" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I69" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J69" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K69" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L69" t="n" s="2">
+        <v>42594.0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D70" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E70" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F70" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G70" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="H70" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I70" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J70" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K70" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L70" t="n" s="2">
+        <v>42826.0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D71" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E71" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F71" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G71" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="H71" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I71" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J71" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K71" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L71" t="n" s="2">
+        <v>42826.0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C72" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D72" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E72" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F72" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="G72" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="H72" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I72" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J72" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K72" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L72" t="n" s="2">
+        <v>40592.0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D73" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E73" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F73" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="G73" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H73" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I73" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J73" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K73" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L73" t="n" s="2">
+        <v>36015.0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D74" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E74" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F74" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="G74" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H74" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I74" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J74" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K74" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L74" t="n" s="2">
+        <v>36772.0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C75" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D75" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E75" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F75" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G75" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="H75" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I75" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J75" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K75" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L75" t="n" s="2">
+        <v>42826.0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C76" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D76" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E76" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F76" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G76" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H76" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I76" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J76" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K76" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L76" t="n" s="2">
+        <v>42826.0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C77" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D77" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E77" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F77" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G77" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H77" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I77" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J77" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K77" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L77" t="n" s="2">
+        <v>37520.0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C78" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D78" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E78" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F78" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G78" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H78" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I78" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J78" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K78" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L78" t="n" s="2">
+        <v>42848.0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C79" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D79" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E79" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F79" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="G79" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H79" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I79" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J79" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K79" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L79" t="n" s="2">
+        <v>37778.0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C80" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D80" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E80" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F80" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G80" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H80" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I80" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J80" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K80" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L80" t="n" s="2">
+        <v>42848.0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C81" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D81" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E81" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F81" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G81" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H81" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I81" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J81" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K81" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L81" t="n" s="2">
+        <v>42848.0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C82" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D82" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E82" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F82" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G82" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H82" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I82" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J82" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K82" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L82" t="n" s="2">
+        <v>42196.0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C83" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D83" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E83" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F83" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G83" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H83" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I83" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J83" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K83" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L83" t="n" s="2">
+        <v>42196.0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C84" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D84" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E84" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F84" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G84" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="H84" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I84" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J84" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K84" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L84" t="n" s="2">
+        <v>42253.0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C85" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D85" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E85" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F85" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G85" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="H85" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I85" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J85" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K85" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L85" t="n" s="2">
+        <v>42518.0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C86" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D86" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E86" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F86" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G86" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H86" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I86" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J86" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K86" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L86" t="n" s="2">
+        <v>33396.0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C87" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D87" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E87" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F87" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G87" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="H87" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I87" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J87" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K87" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L87" t="n" s="2">
+        <v>41040.0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C88" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D88" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E88" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F88" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G88" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H88" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I88" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J88" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K88" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L88" t="n" s="2">
+        <v>32865.0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C89" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D89" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E89" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F89" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G89" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H89" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I89" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J89" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K89" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L89" t="n" s="2">
+        <v>37062.0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C90" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D90" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E90" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F90" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G90" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H90" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I90" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J90" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K90" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L90" t="n" s="2">
+        <v>31955.0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B91" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C91" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D91" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E91" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F91" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="G91" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H91" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I91" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J91" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K91" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L91" t="n" s="2">
+        <v>36301.0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C92" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D92" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E92" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F92" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G92" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="H92" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I92" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J92" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K92" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L92" t="n" s="2">
+        <v>41074.0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D93" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E93" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F93" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="G93" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H93" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I93" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J93" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K93" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L93" t="n" s="2">
+        <v>39144.0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B94" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C94" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D94" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E94" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F94" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G94" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H94" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I94" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J94" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K94" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L94" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="M94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O94" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C95" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D95" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E95" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F95" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G95" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H95" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I95" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J95" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K95" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L95" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="M95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O95" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C96" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D96" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E96" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F96" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G96" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="H96" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I96" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J96" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K96" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L96" t="n" s="2">
+        <v>42434.0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B97" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C97" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D97" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E97" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F97" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="G97" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H97" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I97" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J97" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K97" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L97" t="n" s="2">
+        <v>42547.0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B98" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C98" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D98" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E98" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F98" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G98" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="H98" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I98" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J98" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K98" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L98" t="n" s="2">
+        <v>40739.0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C99" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D99" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E99" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F99" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G99" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="H99" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I99" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J99" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K99" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L99" t="n" s="2">
+        <v>42262.0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B100" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C100" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D100" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E100" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F100" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G100" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="H100" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I100" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J100" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K100" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L100" t="n" s="2">
+        <v>42847.0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B101" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C101" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D101" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E101" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F101" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G101" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H101" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I101" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J101" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K101" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L101" t="n" s="2">
+        <v>32001.0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B102" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C102" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D102" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E102" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F102" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G102" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H102" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I102" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J102" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K102" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L102" t="n" s="2">
+        <v>41784.0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B103" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C103" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D103" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E103" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F103" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G103" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="H103" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I103" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J103" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K103" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L103" t="n" s="2">
+        <v>42126.0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B104" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C104" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D104" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E104" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="F104" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G104" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H104" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I104" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J104" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K104" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L104" t="n" s="2">
+        <v>41783.0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B105" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C105" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D105" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E105" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F105" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G105" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H105" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I105" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J105" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K105" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L105" t="n" s="2">
+        <v>39044.0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B106" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C106" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D106" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E106" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F106" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G106" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H106" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I106" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J106" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K106" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L106" t="n" s="2">
+        <v>38380.0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C107" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D107" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E107" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F107" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="G107" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H107" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I107" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J107" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K107" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L107" t="n" s="2">
+        <v>38052.0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B108" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C108" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D108" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E108" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F108" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G108" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="H108" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I108" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J108" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K108" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L108" t="n" s="2">
+        <v>41615.0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C109" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D109" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E109" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F109" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="G109" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H109" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I109" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J109" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K109" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L109" t="n" s="2">
+        <v>34749.0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C110" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D110" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E110" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F110" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G110" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="H110" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I110" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J110" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K110" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L110" t="n" s="2">
+        <v>42755.0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C111" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D111" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E111" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F111" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G111" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H111" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I111" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J111" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K111" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L111" t="n" s="2">
+        <v>38017.0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C112" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D112" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E112" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F112" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G112" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H112" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I112" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J112" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K112" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L112" t="n" s="2">
+        <v>36562.0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B113" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C113" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D113" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E113" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F113" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G113" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H113" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I113" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J113" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K113" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L113" t="n" s="2">
+        <v>35827.0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C114" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D114" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E114" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F114" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G114" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="H114" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I114" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J114" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K114" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L114" t="n" s="2">
+        <v>42792.0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B115" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C115" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D115" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E115" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="F115" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="G115" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H115" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I115" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J115" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K115" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L115" t="n" s="2">
+        <v>39494.0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B116" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C116" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D116" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E116" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F116" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G116" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H116" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I116" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J116" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K116" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L116" t="n" s="2">
+        <v>35832.0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B117" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C117" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D117" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E117" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F117" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="G117" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H117" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I117" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J117" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K117" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L117" t="n" s="2">
+        <v>35845.0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B118" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C118" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D118" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E118" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F118" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="G118" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H118" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I118" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J118" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K118" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L118" t="n" s="2">
+        <v>37297.0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C119" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D119" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E119" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F119" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G119" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H119" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I119" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J119" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K119" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L119" t="n" s="2">
+        <v>27790.0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1976.0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B120" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C120" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D120" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E120" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F120" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="G120" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="H120" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I120" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J120" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K120" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L120" t="n" s="2">
+        <v>40587.0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B121" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C121" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D121" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E121" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F121" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="G121" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H121" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I121" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J121" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K121" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L121" t="n" s="2">
+        <v>42396.0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B122" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C122" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D122" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E122" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F122" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G122" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H122" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I122" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J122" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K122" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L122" t="n" s="2">
+        <v>34002.0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C123" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D123" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E123" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F123" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G123" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H123" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I123" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J123" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K123" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L123" t="n" s="2">
+        <v>34385.0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B124" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C124" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D124" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E124" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F124" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="G124" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H124" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I124" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J124" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K124" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L124" t="n" s="2">
+        <v>32935.0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B125" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C125" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D125" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E125" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F125" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G125" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H125" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I125" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J125" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K125" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L125" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="M125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O125" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B126" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C126" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D126" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E126" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F126" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G126" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H126" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I126" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J126" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K126" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L126" t="n" s="2">
+        <v>40923.0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B127" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C127" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D127" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E127" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F127" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="G127" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H127" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I127" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J127" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K127" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L127" t="n" s="2">
+        <v>31842.0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C128" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D128" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E128" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F128" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G128" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H128" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I128" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J128" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K128" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L128" t="n" s="2">
+        <v>30751.0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C129" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D129" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E129" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F129" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G129" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H129" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I129" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J129" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K129" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L129" t="n" s="2">
+        <v>30744.0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C130" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D130" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E130" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F130" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="G130" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="H130" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I130" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J130" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K130" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L130" t="n" s="2">
+        <v>40979.0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B131" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C131" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D131" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E131" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F131" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="G131" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="H131" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I131" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J131" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K131" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L131" t="n" s="2">
+        <v>40596.0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B132" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C132" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D132" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E132" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F132" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="G132" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="H132" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I132" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J132" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K132" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L132" t="n" s="2">
+        <v>42784.0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B133" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C133" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D133" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E133" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="F133" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="G133" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H133" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I133" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J133" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K133" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L133" t="n" s="2">
+        <v>40229.0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B134" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C134" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D134" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E134" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F134" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G134" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H134" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I134" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J134" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K134" t="s">
-        <v>614</v>
+        <v>618</v>
+      </c>
+      <c r="L134" t="n" s="2">
+        <v>36204.0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B135" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C135" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D135" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E135" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F135" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G135" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H135" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I135" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J135" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K135" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L135" t="n" s="2">
+        <v>29273.0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B136" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C136" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D136" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E136" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F136" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G136" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="H136" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I136" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J136" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K136" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L136" t="n" s="2">
+        <v>40572.0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B137" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C137" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D137" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E137" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F137" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G137" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="H137" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I137" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J137" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K137" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L137" t="n" s="2">
+        <v>40599.0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B138" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C138" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D138" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E138" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F138" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G138" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H138" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I138" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J138" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K138" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="L138" t="e" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="M138" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N138" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O138" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
